--- a/results.xlsx
+++ b/results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="61">
   <si>
     <t>Rank</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Personal Web</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -537,6 +540,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,7 +583,7 @@
           <c:order val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$F$57,Sheet1!$H$57,Sheet1!$J$57,Sheet1!$L$57,Sheet1!$N$57,Sheet1!$P$57,Sheet1!$R$57,Sheet1!$T$57,Sheet1!$V$57,Sheet1!$X$57)</c:f>
+              <c:f>(Sheet1!$G$57,Sheet1!$J$57,Sheet1!$M$57,Sheet1!$P$57,Sheet1!$S$57,Sheet1!$V$57,Sheet1!$Y$57,Sheet1!$AB$57,Sheet1!$AE$57,Sheet1!$AH$57)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -616,26 +621,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="85485824"/>
-        <c:axId val="85503360"/>
+        <c:axId val="73772032"/>
+        <c:axId val="82576128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85485824"/>
+        <c:axId val="73772032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85503360"/>
+        <c:crossAx val="82576128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85503360"/>
+        <c:axId val="82576128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -644,7 +648,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85485824"/>
+        <c:crossAx val="73772032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -653,7 +657,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -691,7 +695,7 @@
           <c:order val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$G$57,Sheet1!$I$57,Sheet1!$K$57,Sheet1!$M$57,Sheet1!$O$57,Sheet1!$Q$57,Sheet1!$S$57,Sheet1!$U$57,Sheet1!$W$57,Sheet1!$Y$57)</c:f>
+              <c:f>(Sheet1!$I$57,Sheet1!$L$57,Sheet1!$O$57,Sheet1!$R$57,Sheet1!$U$57,Sheet1!$X$57,Sheet1!$AA$57,Sheet1!$AD$57,Sheet1!$AG$57,Sheet1!$AJ$57)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -729,28 +733,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="36686080"/>
-        <c:axId val="36691968"/>
+        <c:axId val="82592128"/>
+        <c:axId val="82593664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="36686080"/>
+        <c:axId val="82592128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36691968"/>
+        <c:crossAx val="82593664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36691968"/>
+        <c:axId val="82593664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -764,7 +767,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="36686080"/>
+        <c:crossAx val="82592128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -773,13 +776,131 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Personal</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Web Page</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$57,Sheet1!$K$57,Sheet1!$N$57,Sheet1!$Q$57,Sheet1!$T$57,Sheet1!$W$57,Sheet1!$Z$57,Sheet1!$AC$57,Sheet1!$AF$57,Sheet1!$AI$57)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="63253504"/>
+        <c:axId val="63285888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="63253504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63285888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="63285888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63253504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -831,24 +952,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="37121408"/>
-        <c:axId val="37135488"/>
+        <c:axId val="82638720"/>
+        <c:axId val="82640256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="37121408"/>
+        <c:axId val="82638720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37135488"/>
+        <c:crossAx val="82640256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37135488"/>
+        <c:axId val="82640256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -856,7 +977,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="37121408"/>
+        <c:crossAx val="82638720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -865,7 +986,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -875,16 +996,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>838201</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -905,16 +1026,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -928,6 +1049,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1256,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y58"/>
+  <dimension ref="A1:AJ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1267,30 +1418,31 @@
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="7.28515625" customWidth="1"/>
-    <col min="12" max="13" width="7.5703125" customWidth="1"/>
-    <col min="14" max="15" width="8" customWidth="1"/>
-    <col min="16" max="17" width="7.42578125" customWidth="1"/>
-    <col min="18" max="19" width="7.5703125" customWidth="1"/>
-    <col min="20" max="23" width="7.7109375" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" customWidth="1"/>
-    <col min="27" max="27" width="19.85546875" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="12" width="8" customWidth="1"/>
+    <col min="13" max="15" width="7.28515625" customWidth="1"/>
+    <col min="16" max="18" width="7.5703125" customWidth="1"/>
+    <col min="19" max="21" width="8" customWidth="1"/>
+    <col min="22" max="24" width="7.42578125" customWidth="1"/>
+    <col min="25" max="27" width="7.5703125" customWidth="1"/>
+    <col min="28" max="33" width="7.7109375" customWidth="1"/>
+    <col min="34" max="35" width="7.5703125" customWidth="1"/>
+    <col min="38" max="38" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="21">
+    <row r="1" spans="1:36" ht="21">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="L1" s="17"/>
-    </row>
-    <row r="2" spans="1:25" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:25">
+      <c r="P1" s="17"/>
+      <c r="Q1" s="34"/>
+    </row>
+    <row r="2" spans="1:36" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:36">
       <c r="A3" s="29" t="s">
         <v>0</v>
       </c>
@@ -1303,8 +1455,8 @@
       <c r="D3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1312,140 +1464,175 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="S3" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
-      <c r="Y3" s="25"/>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="25"/>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="30"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
       <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="33">
-        <v>1</v>
-      </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="26">
-        <v>2</v>
-      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="33">
+        <v>1</v>
+      </c>
+      <c r="H4" s="26"/>
       <c r="I4" s="27"/>
       <c r="J4" s="26">
+        <v>2</v>
+      </c>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="26">
         <v>3</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="26">
-        <v>4</v>
-      </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="26">
-        <v>5</v>
-      </c>
+      <c r="N4" s="26"/>
       <c r="O4" s="27"/>
       <c r="P4" s="26">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="26">
-        <v>7</v>
-      </c>
-      <c r="S4" s="27"/>
-      <c r="T4" s="26">
-        <v>8</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="26">
+        <v>5</v>
+      </c>
+      <c r="T4" s="26"/>
       <c r="U4" s="27"/>
       <c r="V4" s="26">
+        <v>6</v>
+      </c>
+      <c r="W4" s="26"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="26">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="26">
+        <v>8</v>
+      </c>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="26">
         <v>9</v>
       </c>
-      <c r="W4" s="27"/>
-      <c r="X4" s="26">
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="26">
         <v>10</v>
       </c>
-      <c r="Y4" s="27"/>
-    </row>
-    <row r="5" spans="1:25" ht="15.75" thickBot="1">
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="27"/>
+    </row>
+    <row r="5" spans="1:36" ht="15.75" thickBot="1">
       <c r="A5" s="31"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
       <c r="D5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="H5" s="6"/>
       <c r="I5" s="23" t="s">
         <v>59</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="6"/>
+      <c r="L5" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="N5" s="6"/>
       <c r="O5" s="23" t="s">
         <v>59</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="23" t="s">
+      <c r="Q5" s="6"/>
+      <c r="R5" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="S5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S5" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="T5" s="6"/>
       <c r="U5" s="23" t="s">
         <v>59</v>
       </c>
       <c r="V5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="W5" s="23" t="s">
+      <c r="W5" s="6"/>
+      <c r="X5" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="Y5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="Y5" s="23" t="s">
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="AB5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -1456,75 +1643,109 @@
         <v>149</v>
       </c>
       <c r="D6" s="15">
-        <f>SUM(F6,H6,J6,L6,N6,P6,R6,T6,V6,X6)</f>
+        <f>SUM(G6,J6,M6,P6,S6,V6,Y6,AB6,AE6,AH6)</f>
         <v>1066</v>
       </c>
-      <c r="E6" s="22">
-        <f>SUM(G6,I6,K6,M6,O6,Q6,S6,U6,W6,Y6)</f>
+      <c r="E6" s="35">
+        <f>H6+K6+N6+Q6+T6+W6+Z6+AC6+AF6+AI6</f>
+        <v>961</v>
+      </c>
+      <c r="F6" s="22">
+        <f>SUM(I6,L6,O6,R6,U6,X6,AA6,AD6,AG6,AJ6)</f>
         <v>1261</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>712</v>
       </c>
-      <c r="G6" s="17">
+      <c r="H6">
+        <v>744</v>
+      </c>
+      <c r="I6" s="17">
         <v>573</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>262</v>
       </c>
-      <c r="I6" s="17">
+      <c r="K6">
+        <v>166</v>
+      </c>
+      <c r="L6" s="17">
         <v>352</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>67</v>
       </c>
-      <c r="K6" s="17">
+      <c r="N6">
+        <v>43</v>
+      </c>
+      <c r="O6" s="17">
         <v>158</v>
       </c>
-      <c r="L6">
+      <c r="P6">
         <v>19</v>
       </c>
-      <c r="M6" s="17">
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6" s="17">
         <v>90</v>
       </c>
-      <c r="N6">
+      <c r="S6">
         <v>3</v>
       </c>
-      <c r="O6" s="17">
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6" s="17">
         <v>36</v>
       </c>
-      <c r="P6">
+      <c r="V6">
         <v>3</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6" s="17">
         <v>18</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6" s="17">
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="17">
         <v>15</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6" s="17">
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="17">
         <v>3</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6" s="17">
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="17">
         <v>7</v>
       </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="17">
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="17">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:36">
       <c r="A7" s="17">
         <v>2</v>
       </c>
@@ -1535,75 +1756,76 @@
         <v>136</v>
       </c>
       <c r="D7" s="16">
-        <f t="shared" ref="D7:D55" si="0">SUM(F7,H7,J7,L7,N7,P7,R7,T7,V7,X7)</f>
+        <f t="shared" ref="D7:D55" si="0">SUM(G7,J7,M7,P7,S7,V7,Y7,AB7,AE7,AH7)</f>
         <v>915</v>
       </c>
-      <c r="E7" s="17">
-        <f t="shared" ref="E7:E55" si="1">SUM(G7,I7,K7,M7,O7,Q7,S7,U7,W7,Y7)</f>
+      <c r="E7" s="34"/>
+      <c r="F7" s="17">
+        <f t="shared" ref="F7:F55" si="1">SUM(I7,L7,O7,R7,U7,X7,AA7,AD7,AG7,AJ7)</f>
         <v>586</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>220</v>
       </c>
-      <c r="G7" s="17">
+      <c r="I7" s="17">
         <v>153</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>428</v>
       </c>
-      <c r="I7" s="17">
+      <c r="L7" s="17">
         <v>231</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <v>199</v>
       </c>
-      <c r="K7" s="17">
+      <c r="O7" s="17">
         <v>146</v>
       </c>
-      <c r="L7">
+      <c r="P7">
         <v>37</v>
       </c>
-      <c r="M7" s="17">
+      <c r="R7" s="17">
         <v>25</v>
       </c>
-      <c r="N7">
+      <c r="S7">
         <v>24</v>
       </c>
-      <c r="O7" s="17">
+      <c r="U7" s="17">
         <v>20</v>
       </c>
-      <c r="P7">
+      <c r="V7">
         <v>5</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="X7" s="17">
         <v>4</v>
       </c>
-      <c r="R7">
+      <c r="Y7">
         <v>2</v>
       </c>
-      <c r="S7" s="17">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7" s="17">
+      <c r="AA7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="17">
         <v>2</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7" s="17">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="17">
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="17">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="17">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:36">
       <c r="A8" s="17">
         <v>3</v>
       </c>
@@ -1617,72 +1839,73 @@
         <f t="shared" si="0"/>
         <v>904</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="34"/>
+      <c r="F8" s="17">
         <f t="shared" si="1"/>
         <v>749</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>136</v>
       </c>
-      <c r="G8" s="17">
+      <c r="I8" s="17">
         <v>90</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>290</v>
       </c>
-      <c r="I8" s="17">
+      <c r="L8" s="17">
         <v>260</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>219</v>
       </c>
-      <c r="K8" s="17">
+      <c r="O8" s="17">
         <v>178</v>
       </c>
-      <c r="L8">
+      <c r="P8">
         <v>130</v>
       </c>
-      <c r="M8" s="17">
+      <c r="R8" s="17">
         <v>109</v>
       </c>
-      <c r="N8">
+      <c r="S8">
         <v>66</v>
       </c>
-      <c r="O8" s="17">
+      <c r="U8" s="17">
         <v>39</v>
       </c>
-      <c r="P8">
+      <c r="V8">
         <v>40</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="X8" s="17">
         <v>31</v>
       </c>
-      <c r="R8">
+      <c r="Y8">
         <v>23</v>
       </c>
-      <c r="S8" s="17">
+      <c r="AA8" s="17">
         <v>28</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8" s="17">
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="17">
         <v>6</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8" s="17">
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="17">
         <v>3</v>
       </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="17">
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:36">
       <c r="A9" s="17">
         <v>4</v>
       </c>
@@ -1696,72 +1919,73 @@
         <f t="shared" si="0"/>
         <v>645</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="34"/>
+      <c r="F9" s="17">
         <f t="shared" si="1"/>
         <v>605</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>111</v>
       </c>
-      <c r="G9" s="17">
+      <c r="I9" s="17">
         <v>107</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>344</v>
       </c>
-      <c r="I9" s="17">
+      <c r="L9" s="17">
         <v>320</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>132</v>
       </c>
-      <c r="K9" s="17">
+      <c r="O9" s="17">
         <v>117</v>
       </c>
-      <c r="L9">
+      <c r="P9">
         <v>38</v>
       </c>
-      <c r="M9" s="17">
+      <c r="R9" s="17">
         <v>36</v>
       </c>
-      <c r="N9">
+      <c r="S9">
         <v>14</v>
       </c>
-      <c r="O9" s="17">
+      <c r="U9" s="17">
         <v>12</v>
       </c>
-      <c r="P9">
+      <c r="V9">
         <v>5</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="X9" s="17">
         <v>5</v>
       </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9" s="17">
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="17">
         <v>2</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9" s="17">
-        <v>1</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9" s="17">
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="17">
         <v>4</v>
       </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
       <c r="A10" s="17">
         <v>5</v>
       </c>
@@ -1775,72 +1999,73 @@
         <f t="shared" si="0"/>
         <v>474</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="34"/>
+      <c r="F10" s="17">
         <f t="shared" si="1"/>
         <v>503</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>51</v>
       </c>
-      <c r="G10" s="17">
+      <c r="I10" s="17">
         <v>71</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>74</v>
       </c>
-      <c r="I10" s="17">
+      <c r="L10" s="17">
         <v>86</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>107</v>
       </c>
-      <c r="K10" s="17">
+      <c r="O10" s="17">
         <v>117</v>
       </c>
-      <c r="L10">
+      <c r="P10">
         <v>108</v>
       </c>
-      <c r="M10" s="17">
+      <c r="R10" s="17">
         <v>114</v>
       </c>
-      <c r="N10">
+      <c r="S10">
         <v>65</v>
       </c>
-      <c r="O10" s="17">
+      <c r="U10" s="17">
         <v>55</v>
       </c>
-      <c r="P10">
+      <c r="V10">
         <v>42</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="X10" s="17">
         <v>36</v>
       </c>
-      <c r="R10">
+      <c r="Y10">
         <v>24</v>
       </c>
-      <c r="S10" s="17">
+      <c r="AA10" s="17">
         <v>16</v>
       </c>
-      <c r="T10">
+      <c r="AB10">
         <v>3</v>
       </c>
-      <c r="U10" s="17">
+      <c r="AD10" s="17">
         <v>5</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10" s="17">
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="17">
         <v>2</v>
       </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
       <c r="A11" s="17">
         <v>6</v>
       </c>
@@ -1854,72 +2079,73 @@
         <f t="shared" si="0"/>
         <v>809</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="34"/>
+      <c r="F11" s="17">
         <f t="shared" si="1"/>
         <v>714</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>185</v>
       </c>
-      <c r="G11" s="17">
+      <c r="I11" s="17">
         <v>146</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>189</v>
       </c>
-      <c r="I11" s="17">
+      <c r="L11" s="17">
         <v>185</v>
       </c>
-      <c r="J11">
+      <c r="M11">
         <v>214</v>
       </c>
-      <c r="K11" s="17">
+      <c r="O11" s="17">
         <v>199</v>
       </c>
-      <c r="L11">
+      <c r="P11">
         <v>135</v>
       </c>
-      <c r="M11" s="17">
+      <c r="R11" s="17">
         <v>115</v>
       </c>
-      <c r="N11">
+      <c r="S11">
         <v>49</v>
       </c>
-      <c r="O11" s="17">
+      <c r="U11" s="17">
         <v>35</v>
       </c>
-      <c r="P11">
+      <c r="V11">
         <v>20</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="X11" s="17">
         <v>19</v>
       </c>
-      <c r="R11">
+      <c r="Y11">
         <v>10</v>
       </c>
-      <c r="S11" s="17">
+      <c r="AA11" s="17">
         <v>7</v>
       </c>
-      <c r="T11">
+      <c r="AB11">
         <v>5</v>
       </c>
-      <c r="U11" s="17">
+      <c r="AD11" s="17">
         <v>4</v>
       </c>
-      <c r="V11">
+      <c r="AE11">
         <v>2</v>
       </c>
-      <c r="W11" s="17">
+      <c r="AG11" s="17">
         <v>3</v>
       </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
       <c r="A12" s="17">
         <v>7</v>
       </c>
@@ -1933,72 +2159,73 @@
         <f t="shared" si="0"/>
         <v>719</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="34"/>
+      <c r="F12" s="17">
         <f t="shared" si="1"/>
         <v>477</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>218</v>
       </c>
-      <c r="G12" s="17">
+      <c r="I12" s="17">
         <v>103</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>257</v>
       </c>
-      <c r="I12" s="17">
+      <c r="L12" s="17">
         <v>179</v>
       </c>
-      <c r="J12">
+      <c r="M12">
         <v>146</v>
       </c>
-      <c r="K12" s="17">
+      <c r="O12" s="17">
         <v>116</v>
       </c>
-      <c r="L12">
+      <c r="P12">
         <v>64</v>
       </c>
-      <c r="M12" s="17">
+      <c r="R12" s="17">
         <v>45</v>
       </c>
-      <c r="N12">
+      <c r="S12">
         <v>20</v>
       </c>
-      <c r="O12" s="17">
+      <c r="U12" s="17">
         <v>16</v>
       </c>
-      <c r="P12">
+      <c r="V12">
         <v>8</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="X12" s="17">
         <v>4</v>
       </c>
-      <c r="R12">
+      <c r="Y12">
         <v>6</v>
       </c>
-      <c r="S12" s="17">
+      <c r="AA12" s="17">
         <v>8</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12" s="17">
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="17">
         <v>4</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12" s="17">
-        <v>1</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="17">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
       <c r="A13" s="17">
         <v>8</v>
       </c>
@@ -2012,72 +2239,73 @@
         <f t="shared" si="0"/>
         <v>766</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="34"/>
+      <c r="F13" s="17">
         <f t="shared" si="1"/>
         <v>751</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>270</v>
       </c>
-      <c r="G13" s="17">
+      <c r="I13" s="17">
         <v>261</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>184</v>
       </c>
-      <c r="I13" s="17">
+      <c r="L13" s="17">
         <v>170</v>
       </c>
-      <c r="J13">
+      <c r="M13">
         <v>139</v>
       </c>
-      <c r="K13" s="17">
+      <c r="O13" s="17">
         <v>149</v>
       </c>
-      <c r="L13">
+      <c r="P13">
         <v>75</v>
       </c>
-      <c r="M13" s="17">
+      <c r="R13" s="17">
         <v>68</v>
       </c>
-      <c r="N13">
+      <c r="S13">
         <v>49</v>
       </c>
-      <c r="O13" s="17">
+      <c r="U13" s="17">
         <v>47</v>
       </c>
-      <c r="P13">
+      <c r="V13">
         <v>31</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="X13" s="17">
         <v>26</v>
       </c>
-      <c r="R13">
+      <c r="Y13">
         <v>16</v>
       </c>
-      <c r="S13" s="17">
+      <c r="AA13" s="17">
         <v>13</v>
       </c>
-      <c r="T13">
+      <c r="AB13">
         <v>2</v>
       </c>
-      <c r="U13" s="17">
+      <c r="AD13" s="17">
         <v>3</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13" s="17">
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="17">
         <v>7</v>
       </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="17">
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="17">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:36">
       <c r="A14" s="17">
         <v>9</v>
       </c>
@@ -2091,72 +2319,73 @@
         <f t="shared" si="0"/>
         <v>522</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="34"/>
+      <c r="F14" s="17">
         <f t="shared" si="1"/>
         <v>439</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>188</v>
       </c>
-      <c r="G14" s="17">
+      <c r="I14" s="17">
         <v>144</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>112</v>
       </c>
-      <c r="I14" s="17">
+      <c r="L14" s="17">
         <v>83</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>105</v>
       </c>
-      <c r="K14" s="17">
+      <c r="O14" s="17">
         <v>94</v>
       </c>
-      <c r="L14">
+      <c r="P14">
         <v>69</v>
       </c>
-      <c r="M14" s="17">
+      <c r="R14" s="17">
         <v>64</v>
       </c>
-      <c r="N14">
+      <c r="S14">
         <v>28</v>
       </c>
-      <c r="O14" s="17">
+      <c r="U14" s="17">
         <v>26</v>
       </c>
-      <c r="P14">
+      <c r="V14">
         <v>10</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="X14" s="17">
         <v>12</v>
       </c>
-      <c r="R14">
+      <c r="Y14">
         <v>10</v>
       </c>
-      <c r="S14" s="17">
+      <c r="AA14" s="17">
         <v>7</v>
       </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14" s="17">
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="17">
         <v>7</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14" s="17">
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="17">
         <v>2</v>
       </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36">
       <c r="A15" s="17">
         <v>10</v>
       </c>
@@ -2170,72 +2399,73 @@
         <f t="shared" si="0"/>
         <v>601</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="34"/>
+      <c r="F15" s="17">
         <f t="shared" si="1"/>
         <v>499</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>120</v>
       </c>
-      <c r="G15" s="17">
+      <c r="I15" s="17">
         <v>88</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>213</v>
       </c>
-      <c r="I15" s="17">
+      <c r="L15" s="17">
         <v>178</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>173</v>
       </c>
-      <c r="K15" s="17">
+      <c r="O15" s="17">
         <v>151</v>
       </c>
-      <c r="L15">
+      <c r="P15">
         <v>46</v>
       </c>
-      <c r="M15" s="17">
+      <c r="R15" s="17">
         <v>43</v>
       </c>
-      <c r="N15">
+      <c r="S15">
         <v>37</v>
       </c>
-      <c r="O15" s="17">
+      <c r="U15" s="17">
         <v>26</v>
       </c>
-      <c r="P15">
+      <c r="V15">
         <v>10</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="X15" s="17">
         <v>6</v>
       </c>
-      <c r="R15">
+      <c r="Y15">
         <v>2</v>
       </c>
-      <c r="S15" s="17">
+      <c r="AA15" s="17">
         <v>2</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15" s="17">
-        <v>1</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15" s="17">
-        <v>1</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="17">
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="17">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="17">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="17">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:36">
       <c r="A16" s="17">
         <v>11</v>
       </c>
@@ -2249,72 +2479,73 @@
         <f t="shared" si="0"/>
         <v>959</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="34"/>
+      <c r="F16" s="17">
         <f t="shared" si="1"/>
         <v>849</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>85</v>
       </c>
-      <c r="G16" s="17">
+      <c r="I16" s="17">
         <v>83</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>261</v>
       </c>
-      <c r="I16" s="17">
+      <c r="L16" s="17">
         <v>260</v>
       </c>
-      <c r="J16">
+      <c r="M16">
         <v>304</v>
       </c>
-      <c r="K16" s="17">
+      <c r="O16" s="17">
         <v>285</v>
       </c>
-      <c r="L16">
+      <c r="P16">
         <v>221</v>
       </c>
-      <c r="M16" s="17">
+      <c r="R16" s="17">
         <v>156</v>
       </c>
-      <c r="N16">
+      <c r="S16">
         <v>49</v>
       </c>
-      <c r="O16" s="17">
+      <c r="U16" s="17">
         <v>44</v>
       </c>
-      <c r="P16">
+      <c r="V16">
         <v>28</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="X16" s="17">
         <v>13</v>
       </c>
-      <c r="R16">
+      <c r="Y16">
         <v>6</v>
       </c>
-      <c r="S16" s="17">
-        <v>1</v>
-      </c>
-      <c r="T16">
+      <c r="AA16" s="17">
+        <v>1</v>
+      </c>
+      <c r="AB16">
         <v>3</v>
       </c>
-      <c r="U16" s="17">
+      <c r="AD16" s="17">
         <v>5</v>
       </c>
-      <c r="V16">
+      <c r="AE16">
         <v>2</v>
       </c>
-      <c r="W16" s="17">
-        <v>1</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="AG16" s="17">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36">
       <c r="A17" s="17">
         <v>12</v>
       </c>
@@ -2328,72 +2559,73 @@
         <f t="shared" si="0"/>
         <v>411</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="34"/>
+      <c r="F17" s="17">
         <f t="shared" si="1"/>
         <v>495</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>175</v>
       </c>
-      <c r="G17" s="17">
+      <c r="I17" s="17">
         <v>206</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>141</v>
       </c>
-      <c r="I17" s="17">
+      <c r="L17" s="17">
         <v>172</v>
       </c>
-      <c r="J17">
+      <c r="M17">
         <v>62</v>
       </c>
-      <c r="K17" s="17">
+      <c r="O17" s="17">
         <v>75</v>
       </c>
-      <c r="L17">
+      <c r="P17">
         <v>13</v>
       </c>
-      <c r="M17" s="17">
+      <c r="R17" s="17">
         <v>18</v>
       </c>
-      <c r="N17">
+      <c r="S17">
         <v>8</v>
       </c>
-      <c r="O17" s="17">
+      <c r="U17" s="17">
         <v>9</v>
       </c>
-      <c r="P17">
+      <c r="V17">
         <v>11</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="X17" s="17">
         <v>12</v>
       </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17" s="17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17" s="17">
-        <v>1</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17" s="17">
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="17">
         <v>2</v>
       </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36">
       <c r="A18" s="17">
         <v>13</v>
       </c>
@@ -2407,72 +2639,73 @@
         <f t="shared" si="0"/>
         <v>505</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="34"/>
+      <c r="F18" s="17">
         <f t="shared" si="1"/>
         <v>419</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>38</v>
       </c>
-      <c r="G18" s="17">
+      <c r="I18" s="17">
         <v>27</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>246</v>
       </c>
-      <c r="I18" s="17">
+      <c r="L18" s="17">
         <v>206</v>
       </c>
-      <c r="J18">
+      <c r="M18">
         <v>141</v>
       </c>
-      <c r="K18" s="17">
+      <c r="O18" s="17">
         <v>130</v>
       </c>
-      <c r="L18">
+      <c r="P18">
         <v>39</v>
       </c>
-      <c r="M18" s="17">
+      <c r="R18" s="17">
         <v>32</v>
       </c>
-      <c r="N18">
+      <c r="S18">
         <v>26</v>
       </c>
-      <c r="O18" s="17">
+      <c r="U18" s="17">
         <v>17</v>
       </c>
-      <c r="P18">
+      <c r="V18">
         <v>11</v>
       </c>
-      <c r="Q18" s="17">
+      <c r="X18" s="17">
         <v>3</v>
       </c>
-      <c r="R18">
+      <c r="Y18">
         <v>4</v>
       </c>
-      <c r="S18" s="17">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18" s="17">
+      <c r="AA18" s="17">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="17">
         <v>2</v>
       </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18" s="17">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="17">
+        <v>1</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36">
       <c r="A19" s="17">
         <v>14</v>
       </c>
@@ -2486,72 +2719,73 @@
         <f t="shared" si="0"/>
         <v>1154</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="34"/>
+      <c r="F19" s="17">
         <f t="shared" si="1"/>
         <v>438</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>569</v>
       </c>
-      <c r="G19" s="17">
+      <c r="I19" s="17">
         <v>162</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>259</v>
       </c>
-      <c r="I19" s="17">
+      <c r="L19" s="17">
         <v>122</v>
       </c>
-      <c r="J19">
+      <c r="M19">
         <v>198</v>
       </c>
-      <c r="K19" s="17">
+      <c r="O19" s="17">
         <v>88</v>
       </c>
-      <c r="L19">
+      <c r="P19">
         <v>95</v>
       </c>
-      <c r="M19" s="17">
+      <c r="R19" s="17">
         <v>47</v>
       </c>
-      <c r="N19">
+      <c r="S19">
         <v>29</v>
       </c>
-      <c r="O19" s="17">
+      <c r="U19" s="17">
         <v>14</v>
       </c>
-      <c r="P19">
+      <c r="V19">
         <v>4</v>
       </c>
-      <c r="Q19" s="17">
+      <c r="X19" s="17">
         <v>4</v>
       </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19" s="17">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19" s="17">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19" s="17">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="17">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36">
       <c r="A20" s="17">
         <v>15</v>
       </c>
@@ -2565,72 +2799,73 @@
         <f t="shared" si="0"/>
         <v>222</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="34"/>
+      <c r="F20" s="17">
         <f t="shared" si="1"/>
         <v>208</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>66</v>
       </c>
-      <c r="G20" s="17">
+      <c r="I20" s="17">
         <v>70</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>62</v>
       </c>
-      <c r="I20" s="17">
+      <c r="L20" s="17">
         <v>47</v>
       </c>
-      <c r="J20">
+      <c r="M20">
         <v>43</v>
       </c>
-      <c r="K20" s="17">
+      <c r="O20" s="17">
         <v>33</v>
       </c>
-      <c r="L20">
+      <c r="P20">
         <v>22</v>
       </c>
-      <c r="M20" s="17">
+      <c r="R20" s="17">
         <v>25</v>
       </c>
-      <c r="N20">
+      <c r="S20">
         <v>14</v>
       </c>
-      <c r="O20" s="17">
+      <c r="U20" s="17">
         <v>12</v>
       </c>
-      <c r="P20">
+      <c r="V20">
         <v>8</v>
       </c>
-      <c r="Q20" s="17">
+      <c r="X20" s="17">
         <v>6</v>
       </c>
-      <c r="R20">
+      <c r="Y20">
         <v>6</v>
       </c>
-      <c r="S20" s="17">
+      <c r="AA20" s="17">
         <v>6</v>
       </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20" s="17">
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="17">
         <v>3</v>
       </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20" s="17">
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="17">
         <v>5</v>
       </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36">
       <c r="A21" s="17">
         <v>16</v>
       </c>
@@ -2644,72 +2879,73 @@
         <f t="shared" si="0"/>
         <v>992</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="34"/>
+      <c r="F21" s="17">
         <f t="shared" si="1"/>
         <v>932</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>162</v>
       </c>
-      <c r="G21" s="17">
+      <c r="I21" s="17">
         <v>110</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>457</v>
       </c>
-      <c r="I21" s="17">
+      <c r="L21" s="17">
         <v>466</v>
       </c>
-      <c r="J21">
+      <c r="M21">
         <v>317</v>
       </c>
-      <c r="K21" s="17">
+      <c r="O21" s="17">
         <v>310</v>
       </c>
-      <c r="L21">
+      <c r="P21">
         <v>48</v>
       </c>
-      <c r="M21" s="17">
+      <c r="R21" s="17">
         <v>43</v>
       </c>
-      <c r="N21">
+      <c r="S21">
         <v>6</v>
       </c>
-      <c r="O21" s="17">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="17">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="S21" s="17">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
       <c r="U21" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21" s="17">
-        <v>1</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
+        <v>1</v>
+      </c>
+      <c r="X21" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="17">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36">
       <c r="A22" s="17">
         <v>17</v>
       </c>
@@ -2723,72 +2959,73 @@
         <f t="shared" si="0"/>
         <v>1899</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="34"/>
+      <c r="F22" s="17">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>661</v>
-      </c>
-      <c r="G22" s="17">
-        <v>278</v>
-      </c>
-      <c r="H22">
-        <v>481</v>
       </c>
       <c r="I22" s="17">
         <v>278</v>
       </c>
       <c r="J22">
+        <v>481</v>
+      </c>
+      <c r="L22" s="17">
+        <v>278</v>
+      </c>
+      <c r="M22">
         <v>402</v>
       </c>
-      <c r="K22" s="17">
+      <c r="O22" s="17">
         <v>198</v>
       </c>
-      <c r="L22">
+      <c r="P22">
         <v>138</v>
       </c>
-      <c r="M22" s="17">
+      <c r="R22" s="17">
         <v>113</v>
       </c>
-      <c r="N22">
+      <c r="S22">
         <v>113</v>
       </c>
-      <c r="O22" s="17">
+      <c r="U22" s="17">
         <v>60</v>
       </c>
-      <c r="P22">
+      <c r="V22">
         <v>78</v>
       </c>
-      <c r="Q22" s="17">
+      <c r="X22" s="17">
         <v>27</v>
       </c>
-      <c r="R22">
+      <c r="Y22">
         <v>25</v>
       </c>
-      <c r="S22" s="17">
+      <c r="AA22" s="17">
         <v>10</v>
       </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="U22" s="17">
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="17">
         <v>6</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22" s="17">
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="17">
         <v>3</v>
       </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="17">
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:36">
       <c r="A23" s="18">
         <v>18</v>
       </c>
@@ -2802,52 +3039,63 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="34"/>
+      <c r="F23" s="17">
         <f t="shared" si="1"/>
         <v>473</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="18">
-        <v>81</v>
-      </c>
+      <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="18">
+        <v>81</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="18">
         <v>121</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="18">
-        <v>112</v>
-      </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="18">
-        <v>70</v>
-      </c>
+      <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="18">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="P23" s="8"/>
-      <c r="Q23" s="18">
-        <v>23</v>
-      </c>
-      <c r="R23" s="8"/>
-      <c r="S23" s="18">
-        <v>10</v>
-      </c>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="18">
+        <v>70</v>
+      </c>
+      <c r="S23" s="8"/>
       <c r="T23" s="8"/>
       <c r="U23" s="18">
+        <v>43</v>
+      </c>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="18">
+        <v>23</v>
+      </c>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="18">
+        <v>10</v>
+      </c>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="18">
         <v>8</v>
       </c>
-      <c r="V23" s="8"/>
-      <c r="W23" s="18">
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="18">
         <v>4</v>
       </c>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36">
       <c r="A24" s="18">
         <v>19</v>
       </c>
@@ -2861,72 +3109,83 @@
         <f t="shared" si="0"/>
         <v>506</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="34"/>
+      <c r="F24" s="17">
         <f t="shared" si="1"/>
         <v>631</v>
       </c>
-      <c r="F24" s="8">
+      <c r="G24" s="8">
         <v>40</v>
       </c>
-      <c r="G24" s="18">
+      <c r="H24" s="8"/>
+      <c r="I24" s="18">
         <v>112</v>
       </c>
-      <c r="H24" s="8">
+      <c r="J24" s="8">
         <v>130</v>
       </c>
-      <c r="I24" s="18">
+      <c r="K24" s="8"/>
+      <c r="L24" s="18">
         <v>213</v>
       </c>
-      <c r="J24" s="8">
+      <c r="M24" s="8">
         <v>173</v>
       </c>
-      <c r="K24" s="18">
+      <c r="N24" s="8"/>
+      <c r="O24" s="18">
         <v>172</v>
       </c>
-      <c r="L24" s="8">
+      <c r="P24" s="8">
         <v>102</v>
       </c>
-      <c r="M24" s="18">
+      <c r="Q24" s="8"/>
+      <c r="R24" s="18">
         <v>87</v>
       </c>
-      <c r="N24" s="8">
+      <c r="S24" s="8">
         <v>50</v>
       </c>
-      <c r="O24" s="18">
+      <c r="T24" s="8"/>
+      <c r="U24" s="18">
         <v>37</v>
       </c>
-      <c r="P24" s="8">
+      <c r="V24" s="8">
         <v>9</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="W24" s="8"/>
+      <c r="X24" s="18">
         <v>3</v>
       </c>
-      <c r="R24" s="8">
+      <c r="Y24" s="8">
         <v>2</v>
       </c>
-      <c r="S24" s="18">
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="18">
         <v>6</v>
       </c>
-      <c r="T24" s="8">
-        <v>0</v>
-      </c>
-      <c r="U24" s="18">
-        <v>0</v>
-      </c>
-      <c r="V24" s="8">
-        <v>0</v>
-      </c>
-      <c r="W24" s="18">
-        <v>1</v>
-      </c>
-      <c r="X24" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="AB24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="18">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36">
       <c r="A25" s="18">
         <v>20</v>
       </c>
@@ -2940,72 +3199,83 @@
         <f t="shared" si="0"/>
         <v>679</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="34"/>
+      <c r="F25" s="17">
         <f t="shared" si="1"/>
         <v>508</v>
       </c>
-      <c r="F25" s="8">
+      <c r="G25" s="8">
         <v>183</v>
       </c>
-      <c r="G25" s="18">
+      <c r="H25" s="8"/>
+      <c r="I25" s="18">
         <v>144</v>
       </c>
-      <c r="H25" s="8">
+      <c r="J25" s="8">
         <v>225</v>
       </c>
-      <c r="I25" s="18">
+      <c r="K25" s="8"/>
+      <c r="L25" s="18">
         <v>184</v>
       </c>
-      <c r="J25" s="8">
+      <c r="M25" s="8">
         <v>132</v>
       </c>
-      <c r="K25" s="18">
+      <c r="N25" s="8"/>
+      <c r="O25" s="18">
         <v>92</v>
       </c>
-      <c r="L25" s="8">
+      <c r="P25" s="8">
         <v>81</v>
       </c>
-      <c r="M25" s="18">
+      <c r="Q25" s="8"/>
+      <c r="R25" s="18">
         <v>53</v>
       </c>
-      <c r="N25" s="8">
+      <c r="S25" s="8">
         <v>32</v>
       </c>
-      <c r="O25" s="18">
+      <c r="T25" s="8"/>
+      <c r="U25" s="18">
         <v>17</v>
       </c>
-      <c r="P25" s="8">
+      <c r="V25" s="8">
         <v>16</v>
       </c>
-      <c r="Q25" s="18">
+      <c r="W25" s="8"/>
+      <c r="X25" s="18">
         <v>8</v>
       </c>
-      <c r="R25" s="8">
+      <c r="Y25" s="8">
         <v>6</v>
       </c>
-      <c r="S25" s="18">
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="18">
         <v>4</v>
       </c>
-      <c r="T25" s="8">
+      <c r="AB25" s="8">
         <v>4</v>
       </c>
-      <c r="U25" s="18">
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="18">
         <v>4</v>
       </c>
-      <c r="V25" s="8">
-        <v>0</v>
-      </c>
-      <c r="W25" s="18">
-        <v>1</v>
-      </c>
-      <c r="X25" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="AE25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="18">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36">
       <c r="A26" s="18">
         <v>21</v>
       </c>
@@ -3019,52 +3289,63 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="34"/>
+      <c r="F26" s="17">
         <f t="shared" si="1"/>
         <v>614</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="18">
-        <v>401</v>
-      </c>
+      <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="18">
+        <v>401</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="18">
         <v>160</v>
       </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="18">
-        <v>39</v>
-      </c>
-      <c r="L26" s="8"/>
-      <c r="M26" s="18">
-        <v>8</v>
-      </c>
+      <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="18">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="P26" s="8"/>
-      <c r="Q26" s="18">
-        <v>1</v>
-      </c>
-      <c r="R26" s="8"/>
-      <c r="S26" s="18">
-        <v>0</v>
-      </c>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="18">
+        <v>8</v>
+      </c>
+      <c r="S26" s="8"/>
       <c r="T26" s="8"/>
       <c r="U26" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V26" s="8"/>
-      <c r="W26" s="18">
-        <v>1</v>
-      </c>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="W26" s="8"/>
+      <c r="X26" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="18">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36">
       <c r="A27" s="18">
         <v>22</v>
       </c>
@@ -3078,52 +3359,63 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="34"/>
+      <c r="F27" s="17">
         <f t="shared" si="1"/>
         <v>533</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="18">
-        <v>289</v>
-      </c>
+      <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="18">
+        <v>289</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="18">
         <v>179</v>
       </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="18">
-        <v>53</v>
-      </c>
-      <c r="L27" s="8"/>
-      <c r="M27" s="18">
-        <v>5</v>
-      </c>
+      <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="18">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="P27" s="8"/>
-      <c r="Q27" s="18">
-        <v>3</v>
-      </c>
-      <c r="R27" s="8"/>
-      <c r="S27" s="18">
-        <v>0</v>
-      </c>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="18">
+        <v>5</v>
+      </c>
+      <c r="S27" s="8"/>
       <c r="T27" s="8"/>
       <c r="U27" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V27" s="8"/>
-      <c r="W27" s="18">
-        <v>0</v>
-      </c>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="W27" s="8"/>
+      <c r="X27" s="18">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36">
       <c r="A28" s="18">
         <v>23</v>
       </c>
@@ -3137,52 +3429,63 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="34"/>
+      <c r="F28" s="17">
         <f t="shared" si="1"/>
         <v>790</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="18">
-        <v>60</v>
-      </c>
+      <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="18">
+        <v>60</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="18">
         <v>144</v>
       </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="18">
-        <v>294</v>
-      </c>
-      <c r="L28" s="8"/>
-      <c r="M28" s="18">
-        <v>199</v>
-      </c>
+      <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="18">
-        <v>59</v>
+        <v>294</v>
       </c>
       <c r="P28" s="8"/>
-      <c r="Q28" s="18">
-        <v>13</v>
-      </c>
-      <c r="R28" s="8"/>
-      <c r="S28" s="18">
-        <v>9</v>
-      </c>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="18">
+        <v>199</v>
+      </c>
+      <c r="S28" s="8"/>
       <c r="T28" s="8"/>
       <c r="U28" s="18">
+        <v>59</v>
+      </c>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="18">
+        <v>13</v>
+      </c>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="18">
+        <v>9</v>
+      </c>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="18">
         <v>11</v>
       </c>
-      <c r="V28" s="8"/>
-      <c r="W28" s="18">
-        <v>1</v>
-      </c>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="18">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36">
       <c r="A29" s="18">
         <v>24</v>
       </c>
@@ -3196,72 +3499,83 @@
         <f t="shared" si="0"/>
         <v>446</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="34"/>
+      <c r="F29" s="17">
         <f t="shared" si="1"/>
         <v>327</v>
       </c>
-      <c r="F29" s="8">
+      <c r="G29" s="8">
         <v>116</v>
       </c>
-      <c r="G29" s="18">
+      <c r="H29" s="8"/>
+      <c r="I29" s="18">
         <v>42</v>
       </c>
-      <c r="H29" s="8">
+      <c r="J29" s="8">
         <v>97</v>
       </c>
-      <c r="I29" s="18">
+      <c r="K29" s="8"/>
+      <c r="L29" s="18">
         <v>87</v>
       </c>
-      <c r="J29" s="8">
+      <c r="M29" s="8">
         <v>107</v>
       </c>
-      <c r="K29" s="18">
+      <c r="N29" s="8"/>
+      <c r="O29" s="18">
         <v>81</v>
       </c>
-      <c r="L29" s="8">
+      <c r="P29" s="8">
         <v>75</v>
       </c>
-      <c r="M29" s="18">
+      <c r="Q29" s="8"/>
+      <c r="R29" s="18">
         <v>70</v>
       </c>
-      <c r="N29" s="8">
+      <c r="S29" s="8">
         <v>32</v>
       </c>
-      <c r="O29" s="18">
+      <c r="T29" s="8"/>
+      <c r="U29" s="18">
         <v>25</v>
       </c>
-      <c r="P29" s="8">
+      <c r="V29" s="8">
         <v>15</v>
       </c>
-      <c r="Q29" s="18">
+      <c r="W29" s="8"/>
+      <c r="X29" s="18">
         <v>6</v>
       </c>
-      <c r="R29" s="8">
+      <c r="Y29" s="8">
         <v>4</v>
       </c>
-      <c r="S29" s="18">
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="18">
         <v>7</v>
       </c>
-      <c r="T29" s="8">
-        <v>0</v>
-      </c>
-      <c r="U29" s="18">
+      <c r="AB29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="18">
         <v>7</v>
       </c>
-      <c r="V29" s="8">
-        <v>0</v>
-      </c>
-      <c r="W29" s="18">
-        <v>1</v>
-      </c>
-      <c r="X29" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="AE29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="18">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36">
       <c r="A30" s="18">
         <v>25</v>
       </c>
@@ -3275,72 +3589,83 @@
         <f t="shared" si="0"/>
         <v>426</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="34"/>
+      <c r="F30" s="17">
         <f t="shared" si="1"/>
         <v>448</v>
       </c>
-      <c r="F30" s="8">
+      <c r="G30" s="8">
         <v>102</v>
       </c>
-      <c r="G30" s="18">
+      <c r="H30" s="8"/>
+      <c r="I30" s="18">
         <v>109</v>
       </c>
-      <c r="H30" s="8">
+      <c r="J30" s="8">
         <v>143</v>
       </c>
-      <c r="I30" s="18">
+      <c r="K30" s="8"/>
+      <c r="L30" s="18">
         <v>159</v>
       </c>
-      <c r="J30" s="8">
+      <c r="M30" s="8">
         <v>117</v>
       </c>
-      <c r="K30" s="18">
+      <c r="N30" s="8"/>
+      <c r="O30" s="18">
         <v>111</v>
       </c>
-      <c r="L30" s="8">
+      <c r="P30" s="8">
         <v>33</v>
       </c>
-      <c r="M30" s="18">
+      <c r="Q30" s="8"/>
+      <c r="R30" s="18">
         <v>30</v>
       </c>
-      <c r="N30" s="8">
+      <c r="S30" s="8">
         <v>20</v>
       </c>
-      <c r="O30" s="18">
+      <c r="T30" s="8"/>
+      <c r="U30" s="18">
         <v>17</v>
       </c>
-      <c r="P30" s="8">
+      <c r="V30" s="8">
         <v>10</v>
       </c>
-      <c r="Q30" s="18">
+      <c r="W30" s="8"/>
+      <c r="X30" s="18">
         <v>12</v>
       </c>
-      <c r="R30" s="8">
-        <v>1</v>
-      </c>
-      <c r="S30" s="18">
+      <c r="Y30" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="18">
         <v>2</v>
       </c>
-      <c r="T30" s="8">
-        <v>0</v>
-      </c>
-      <c r="U30" s="18">
+      <c r="AB30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="18">
         <v>5</v>
       </c>
-      <c r="V30" s="8">
-        <v>0</v>
-      </c>
-      <c r="W30" s="18">
+      <c r="AE30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="18">
         <v>3</v>
       </c>
-      <c r="X30" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="AH30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36">
       <c r="A31" s="18">
         <v>26</v>
       </c>
@@ -3354,72 +3679,83 @@
         <f t="shared" si="0"/>
         <v>797</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="34"/>
+      <c r="F31" s="17">
         <f t="shared" si="1"/>
         <v>544</v>
       </c>
-      <c r="F31" s="8">
+      <c r="G31" s="8">
         <v>100</v>
       </c>
-      <c r="G31" s="18">
+      <c r="H31" s="8"/>
+      <c r="I31" s="18">
         <v>59</v>
       </c>
-      <c r="H31" s="8">
+      <c r="J31" s="8">
         <v>321</v>
       </c>
-      <c r="I31" s="18">
+      <c r="K31" s="8"/>
+      <c r="L31" s="18">
         <v>240</v>
       </c>
-      <c r="J31" s="8">
+      <c r="M31" s="8">
         <v>230</v>
       </c>
-      <c r="K31" s="18">
+      <c r="N31" s="8"/>
+      <c r="O31" s="18">
         <v>160</v>
       </c>
-      <c r="L31" s="8">
+      <c r="P31" s="8">
         <v>100</v>
       </c>
-      <c r="M31" s="18">
+      <c r="Q31" s="8"/>
+      <c r="R31" s="18">
         <v>66</v>
       </c>
-      <c r="N31" s="8">
+      <c r="S31" s="8">
         <v>32</v>
       </c>
-      <c r="O31" s="18">
+      <c r="T31" s="8"/>
+      <c r="U31" s="18">
         <v>12</v>
       </c>
-      <c r="P31" s="8">
+      <c r="V31" s="8">
         <v>9</v>
       </c>
-      <c r="Q31" s="18">
+      <c r="W31" s="8"/>
+      <c r="X31" s="18">
         <v>3</v>
       </c>
-      <c r="R31" s="8">
+      <c r="Y31" s="8">
         <v>5</v>
       </c>
-      <c r="S31" s="18">
-        <v>1</v>
-      </c>
-      <c r="T31" s="8">
-        <v>0</v>
-      </c>
-      <c r="U31" s="18">
-        <v>1</v>
-      </c>
-      <c r="V31" s="8">
-        <v>0</v>
-      </c>
-      <c r="W31" s="18">
-        <v>1</v>
-      </c>
-      <c r="X31" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25">
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="18">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36">
       <c r="A32" s="18">
         <v>27</v>
       </c>
@@ -3433,72 +3769,83 @@
         <f t="shared" si="0"/>
         <v>358</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="34"/>
+      <c r="F32" s="17">
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="F32" s="8">
+      <c r="G32" s="8">
         <v>78</v>
       </c>
-      <c r="G32" s="18">
+      <c r="H32" s="8"/>
+      <c r="I32" s="18">
         <v>58</v>
       </c>
-      <c r="H32" s="8">
+      <c r="J32" s="8">
         <v>146</v>
       </c>
-      <c r="I32" s="18">
+      <c r="K32" s="8"/>
+      <c r="L32" s="18">
         <v>86</v>
       </c>
-      <c r="J32" s="8">
+      <c r="M32" s="8">
         <v>77</v>
       </c>
-      <c r="K32" s="18">
+      <c r="N32" s="8"/>
+      <c r="O32" s="18">
         <v>79</v>
       </c>
-      <c r="L32" s="8">
+      <c r="P32" s="8">
         <v>32</v>
       </c>
-      <c r="M32" s="18">
+      <c r="Q32" s="8"/>
+      <c r="R32" s="18">
         <v>20</v>
       </c>
-      <c r="N32" s="8">
+      <c r="S32" s="8">
         <v>12</v>
       </c>
-      <c r="O32" s="18">
+      <c r="T32" s="8"/>
+      <c r="U32" s="18">
         <v>11</v>
       </c>
-      <c r="P32" s="8">
+      <c r="V32" s="8">
         <v>8</v>
       </c>
-      <c r="Q32" s="18">
+      <c r="W32" s="8"/>
+      <c r="X32" s="18">
         <v>6</v>
       </c>
-      <c r="R32" s="8">
+      <c r="Y32" s="8">
         <v>5</v>
       </c>
-      <c r="S32" s="18">
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="18">
         <v>6</v>
       </c>
-      <c r="T32" s="8">
-        <v>0</v>
-      </c>
-      <c r="U32" s="18">
-        <v>1</v>
-      </c>
-      <c r="V32" s="8">
-        <v>0</v>
-      </c>
-      <c r="W32" s="18">
+      <c r="AB32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="18">
         <v>2</v>
       </c>
-      <c r="X32" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="AH32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36">
       <c r="A33" s="18">
         <v>28</v>
       </c>
@@ -3512,72 +3859,83 @@
         <f t="shared" si="0"/>
         <v>515</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="34"/>
+      <c r="F33" s="17">
         <f t="shared" si="1"/>
         <v>445</v>
       </c>
-      <c r="F33" s="8">
+      <c r="G33" s="8">
         <v>156</v>
       </c>
-      <c r="G33" s="18">
+      <c r="H33" s="8"/>
+      <c r="I33" s="18">
         <v>96</v>
       </c>
-      <c r="H33" s="8">
+      <c r="J33" s="8">
         <v>139</v>
       </c>
-      <c r="I33" s="18">
+      <c r="K33" s="8"/>
+      <c r="L33" s="18">
         <v>127</v>
       </c>
-      <c r="J33" s="8">
+      <c r="M33" s="8">
         <v>121</v>
       </c>
-      <c r="K33" s="18">
+      <c r="N33" s="8"/>
+      <c r="O33" s="18">
         <v>113</v>
       </c>
-      <c r="L33" s="8">
+      <c r="P33" s="8">
         <v>49</v>
       </c>
-      <c r="M33" s="18">
+      <c r="Q33" s="8"/>
+      <c r="R33" s="18">
         <v>50</v>
       </c>
-      <c r="N33" s="8">
+      <c r="S33" s="8">
         <v>22</v>
       </c>
-      <c r="O33" s="18">
+      <c r="T33" s="8"/>
+      <c r="U33" s="18">
         <v>22</v>
       </c>
-      <c r="P33" s="8">
+      <c r="V33" s="8">
         <v>18</v>
       </c>
-      <c r="Q33" s="18">
+      <c r="W33" s="8"/>
+      <c r="X33" s="18">
         <v>19</v>
       </c>
-      <c r="R33" s="8">
+      <c r="Y33" s="8">
         <v>2</v>
       </c>
-      <c r="S33" s="18">
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="18">
         <v>2</v>
       </c>
-      <c r="T33" s="8">
+      <c r="AB33" s="8">
         <v>2</v>
       </c>
-      <c r="U33" s="18">
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="18">
         <v>2</v>
       </c>
-      <c r="V33" s="8">
+      <c r="AE33" s="8">
         <v>6</v>
       </c>
-      <c r="W33" s="18">
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="18">
         <v>7</v>
       </c>
-      <c r="X33" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="18">
+      <c r="AH33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="18">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:36">
       <c r="A34" s="18">
         <v>29</v>
       </c>
@@ -3591,72 +3949,83 @@
         <f t="shared" si="0"/>
         <v>516</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="34"/>
+      <c r="F34" s="17">
         <f t="shared" si="1"/>
         <v>740</v>
       </c>
-      <c r="F34" s="8">
+      <c r="G34" s="8">
         <v>131</v>
       </c>
-      <c r="G34" s="18">
+      <c r="H34" s="8"/>
+      <c r="I34" s="18">
         <v>193</v>
       </c>
-      <c r="H34" s="8">
+      <c r="J34" s="8">
         <v>167</v>
       </c>
-      <c r="I34" s="18">
+      <c r="K34" s="8"/>
+      <c r="L34" s="18">
         <v>240</v>
       </c>
-      <c r="J34" s="8">
+      <c r="M34" s="8">
         <v>96</v>
       </c>
-      <c r="K34" s="18">
+      <c r="N34" s="8"/>
+      <c r="O34" s="18">
         <v>135</v>
       </c>
-      <c r="L34" s="8">
+      <c r="P34" s="8">
         <v>75</v>
       </c>
-      <c r="M34" s="18">
+      <c r="Q34" s="8"/>
+      <c r="R34" s="18">
         <v>108</v>
       </c>
-      <c r="N34" s="8">
+      <c r="S34" s="8">
         <v>26</v>
       </c>
-      <c r="O34" s="18">
+      <c r="T34" s="8"/>
+      <c r="U34" s="18">
         <v>42</v>
       </c>
-      <c r="P34" s="8">
+      <c r="V34" s="8">
         <v>18</v>
       </c>
-      <c r="Q34" s="18">
+      <c r="W34" s="8"/>
+      <c r="X34" s="18">
         <v>15</v>
       </c>
-      <c r="R34" s="8">
+      <c r="Y34" s="8">
         <v>3</v>
       </c>
-      <c r="S34" s="18">
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="18">
         <v>3</v>
       </c>
-      <c r="T34" s="8">
-        <v>0</v>
-      </c>
-      <c r="U34" s="18">
+      <c r="AB34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="18">
         <v>4</v>
       </c>
-      <c r="V34" s="8">
-        <v>0</v>
-      </c>
-      <c r="W34" s="18">
-        <v>0</v>
-      </c>
-      <c r="X34" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="AE34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36">
       <c r="A35" s="18">
         <v>30</v>
       </c>
@@ -3670,72 +4039,83 @@
         <f t="shared" si="0"/>
         <v>1055</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="34"/>
+      <c r="F35" s="17">
         <f t="shared" si="1"/>
         <v>997</v>
       </c>
-      <c r="F35" s="8">
+      <c r="G35" s="8">
         <v>104</v>
       </c>
-      <c r="G35" s="18">
+      <c r="H35" s="8"/>
+      <c r="I35" s="18">
         <v>77</v>
       </c>
-      <c r="H35" s="8">
+      <c r="J35" s="8">
         <v>238</v>
       </c>
-      <c r="I35" s="18">
+      <c r="K35" s="8"/>
+      <c r="L35" s="18">
         <v>215</v>
       </c>
-      <c r="J35" s="8">
+      <c r="M35" s="8">
         <v>300</v>
       </c>
-      <c r="K35" s="18">
+      <c r="N35" s="8"/>
+      <c r="O35" s="18">
         <v>264</v>
       </c>
-      <c r="L35" s="8">
+      <c r="P35" s="8">
         <v>252</v>
       </c>
-      <c r="M35" s="18">
+      <c r="Q35" s="8"/>
+      <c r="R35" s="18">
         <v>239</v>
       </c>
-      <c r="N35" s="8">
+      <c r="S35" s="8">
         <v>140</v>
       </c>
-      <c r="O35" s="18">
+      <c r="T35" s="8"/>
+      <c r="U35" s="18">
         <v>119</v>
       </c>
-      <c r="P35" s="8">
+      <c r="V35" s="8">
         <v>20</v>
       </c>
-      <c r="Q35" s="18">
+      <c r="W35" s="8"/>
+      <c r="X35" s="18">
         <v>37</v>
       </c>
-      <c r="R35" s="8">
-        <v>1</v>
-      </c>
-      <c r="S35" s="18">
+      <c r="Y35" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="18">
         <v>21</v>
       </c>
-      <c r="T35" s="8">
-        <v>0</v>
-      </c>
-      <c r="U35" s="18">
+      <c r="AB35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="18">
         <v>18</v>
       </c>
-      <c r="V35" s="8">
-        <v>0</v>
-      </c>
-      <c r="W35" s="18">
+      <c r="AE35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="18">
         <v>3</v>
       </c>
-      <c r="X35" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="18">
+      <c r="AH35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:36">
       <c r="A36" s="18">
         <v>31</v>
       </c>
@@ -3749,72 +4129,83 @@
         <f t="shared" si="0"/>
         <v>563</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="34"/>
+      <c r="F36" s="17">
         <f t="shared" si="1"/>
         <v>421</v>
       </c>
-      <c r="F36" s="8">
+      <c r="G36" s="8">
         <v>147</v>
       </c>
-      <c r="G36" s="18">
+      <c r="H36" s="8"/>
+      <c r="I36" s="18">
         <v>92</v>
       </c>
-      <c r="H36" s="8">
+      <c r="J36" s="8">
         <v>177</v>
       </c>
-      <c r="I36" s="18">
+      <c r="K36" s="8"/>
+      <c r="L36" s="18">
         <v>136</v>
       </c>
-      <c r="J36" s="8">
+      <c r="M36" s="8">
         <v>153</v>
       </c>
-      <c r="K36" s="18">
+      <c r="N36" s="8"/>
+      <c r="O36" s="18">
         <v>115</v>
       </c>
-      <c r="L36" s="8">
+      <c r="P36" s="8">
         <v>55</v>
       </c>
-      <c r="M36" s="18">
+      <c r="Q36" s="8"/>
+      <c r="R36" s="18">
         <v>56</v>
       </c>
-      <c r="N36" s="8">
+      <c r="S36" s="8">
         <v>21</v>
       </c>
-      <c r="O36" s="18">
+      <c r="T36" s="8"/>
+      <c r="U36" s="18">
         <v>14</v>
       </c>
-      <c r="P36" s="8">
+      <c r="V36" s="8">
         <v>8</v>
       </c>
-      <c r="Q36" s="18">
+      <c r="W36" s="8"/>
+      <c r="X36" s="18">
         <v>5</v>
       </c>
-      <c r="R36" s="8">
-        <v>1</v>
-      </c>
-      <c r="S36" s="18">
-        <v>0</v>
-      </c>
-      <c r="T36" s="8">
-        <v>1</v>
-      </c>
-      <c r="U36" s="18">
-        <v>0</v>
-      </c>
-      <c r="V36" s="8">
-        <v>0</v>
-      </c>
-      <c r="W36" s="18">
-        <v>1</v>
-      </c>
-      <c r="X36" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="18">
+      <c r="Y36" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="18">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:36">
       <c r="A37" s="18">
         <v>32</v>
       </c>
@@ -3828,72 +4219,83 @@
         <f t="shared" si="0"/>
         <v>553</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="34"/>
+      <c r="F37" s="17">
         <f t="shared" si="1"/>
         <v>397</v>
       </c>
-      <c r="F37" s="8">
+      <c r="G37" s="8">
         <v>183</v>
       </c>
-      <c r="G37" s="18">
+      <c r="H37" s="8"/>
+      <c r="I37" s="18">
         <v>108</v>
       </c>
-      <c r="H37" s="8">
+      <c r="J37" s="8">
         <v>244</v>
       </c>
-      <c r="I37" s="18">
+      <c r="K37" s="8"/>
+      <c r="L37" s="18">
         <v>190</v>
       </c>
-      <c r="J37" s="8">
+      <c r="M37" s="8">
         <v>75</v>
       </c>
-      <c r="K37" s="18">
+      <c r="N37" s="8"/>
+      <c r="O37" s="18">
         <v>66</v>
       </c>
-      <c r="L37" s="8">
+      <c r="P37" s="8">
         <v>35</v>
       </c>
-      <c r="M37" s="18">
+      <c r="Q37" s="8"/>
+      <c r="R37" s="18">
         <v>23</v>
       </c>
-      <c r="N37" s="8">
+      <c r="S37" s="8">
         <v>9</v>
       </c>
-      <c r="O37" s="18">
-        <v>2</v>
-      </c>
-      <c r="P37" s="8">
-        <v>5</v>
-      </c>
-      <c r="Q37" s="18">
-        <v>3</v>
-      </c>
-      <c r="R37" s="8">
-        <v>2</v>
-      </c>
-      <c r="S37" s="18">
-        <v>2</v>
-      </c>
-      <c r="T37" s="8">
-        <v>0</v>
-      </c>
+      <c r="T37" s="8"/>
       <c r="U37" s="18">
         <v>2</v>
       </c>
       <c r="V37" s="8">
-        <v>0</v>
-      </c>
-      <c r="W37" s="18">
-        <v>1</v>
-      </c>
-      <c r="X37" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25">
+        <v>5</v>
+      </c>
+      <c r="W37" s="8"/>
+      <c r="X37" s="18">
+        <v>3</v>
+      </c>
+      <c r="Y37" s="8">
+        <v>2</v>
+      </c>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="18">
+        <v>2</v>
+      </c>
+      <c r="AB37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="18">
+        <v>2</v>
+      </c>
+      <c r="AE37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="18">
+        <v>1</v>
+      </c>
+      <c r="AH37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36">
       <c r="A38" s="18">
         <v>33</v>
       </c>
@@ -3907,72 +4309,83 @@
         <f t="shared" si="0"/>
         <v>599</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="34"/>
+      <c r="F38" s="17">
         <f t="shared" si="1"/>
         <v>501</v>
       </c>
-      <c r="F38" s="8">
+      <c r="G38" s="8">
         <v>192</v>
       </c>
-      <c r="G38" s="18">
+      <c r="H38" s="8"/>
+      <c r="I38" s="18">
         <v>104</v>
       </c>
-      <c r="H38" s="8">
+      <c r="J38" s="8">
         <v>218</v>
       </c>
-      <c r="I38" s="18">
+      <c r="K38" s="8"/>
+      <c r="L38" s="18">
         <v>217</v>
       </c>
-      <c r="J38" s="8">
+      <c r="M38" s="8">
         <v>126</v>
       </c>
-      <c r="K38" s="18">
+      <c r="N38" s="8"/>
+      <c r="O38" s="18">
         <v>117</v>
       </c>
-      <c r="L38" s="8">
+      <c r="P38" s="8">
         <v>48</v>
       </c>
-      <c r="M38" s="18">
+      <c r="Q38" s="8"/>
+      <c r="R38" s="18">
         <v>44</v>
       </c>
-      <c r="N38" s="8">
+      <c r="S38" s="8">
         <v>12</v>
       </c>
-      <c r="O38" s="18">
+      <c r="T38" s="8"/>
+      <c r="U38" s="18">
         <v>10</v>
       </c>
-      <c r="P38" s="8">
+      <c r="V38" s="8">
         <v>3</v>
       </c>
-      <c r="Q38" s="18">
+      <c r="W38" s="8"/>
+      <c r="X38" s="18">
         <v>7</v>
       </c>
-      <c r="R38" s="8">
-        <v>0</v>
-      </c>
-      <c r="S38" s="18">
-        <v>0</v>
-      </c>
-      <c r="T38" s="8">
-        <v>0</v>
-      </c>
-      <c r="U38" s="18">
+      <c r="Y38" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="18">
         <v>2</v>
       </c>
-      <c r="V38" s="8">
-        <v>0</v>
-      </c>
-      <c r="W38" s="18">
-        <v>0</v>
-      </c>
-      <c r="X38" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="AE38" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36">
       <c r="A39" s="18">
         <v>34</v>
       </c>
@@ -3986,72 +4399,83 @@
         <f t="shared" si="0"/>
         <v>366</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="34"/>
+      <c r="F39" s="17">
         <f t="shared" si="1"/>
         <v>314</v>
       </c>
-      <c r="F39" s="8">
+      <c r="G39" s="8">
         <v>118</v>
       </c>
-      <c r="G39" s="18">
+      <c r="H39" s="8"/>
+      <c r="I39" s="18">
         <v>99</v>
       </c>
-      <c r="H39" s="8">
+      <c r="J39" s="8">
         <v>151</v>
       </c>
-      <c r="I39" s="18">
+      <c r="K39" s="8"/>
+      <c r="L39" s="18">
         <v>140</v>
       </c>
-      <c r="J39" s="8">
+      <c r="M39" s="8">
         <v>68</v>
       </c>
-      <c r="K39" s="18">
+      <c r="N39" s="8"/>
+      <c r="O39" s="18">
         <v>54</v>
       </c>
-      <c r="L39" s="8">
+      <c r="P39" s="8">
         <v>24</v>
       </c>
-      <c r="M39" s="18">
+      <c r="Q39" s="8"/>
+      <c r="R39" s="18">
         <v>17</v>
       </c>
-      <c r="N39" s="8">
+      <c r="S39" s="8">
         <v>3</v>
       </c>
-      <c r="O39" s="18">
+      <c r="T39" s="8"/>
+      <c r="U39" s="18">
         <v>3</v>
       </c>
-      <c r="P39" s="8">
+      <c r="V39" s="8">
         <v>2</v>
       </c>
-      <c r="Q39" s="18">
-        <v>1</v>
-      </c>
-      <c r="R39" s="8">
-        <v>0</v>
-      </c>
-      <c r="S39" s="18">
-        <v>0</v>
-      </c>
-      <c r="T39" s="8">
-        <v>0</v>
-      </c>
-      <c r="U39" s="18">
-        <v>0</v>
-      </c>
-      <c r="V39" s="8">
-        <v>0</v>
-      </c>
-      <c r="W39" s="18">
-        <v>0</v>
-      </c>
-      <c r="X39" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25">
+      <c r="W39" s="8"/>
+      <c r="X39" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36">
       <c r="A40" s="18">
         <v>35</v>
       </c>
@@ -4065,52 +4489,63 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="34"/>
+      <c r="F40" s="17">
         <f t="shared" si="1"/>
         <v>630</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="18">
-        <v>47</v>
-      </c>
+      <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="18">
+        <v>47</v>
+      </c>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="18">
         <v>310</v>
       </c>
-      <c r="J40" s="8"/>
-      <c r="K40" s="18">
-        <v>193</v>
-      </c>
-      <c r="L40" s="8"/>
-      <c r="M40" s="18">
-        <v>61</v>
-      </c>
+      <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="18">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="P40" s="8"/>
-      <c r="Q40" s="18">
-        <v>4</v>
-      </c>
-      <c r="R40" s="8"/>
-      <c r="S40" s="18">
-        <v>1</v>
-      </c>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="18">
+        <v>61</v>
+      </c>
+      <c r="S40" s="8"/>
       <c r="T40" s="8"/>
       <c r="U40" s="18">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="V40" s="8"/>
-      <c r="W40" s="18">
-        <v>0</v>
-      </c>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="18">
+      <c r="W40" s="8"/>
+      <c r="X40" s="18">
+        <v>4</v>
+      </c>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:36">
       <c r="A41" s="18">
         <v>36</v>
       </c>
@@ -4124,52 +4559,63 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="34"/>
+      <c r="F41" s="17">
         <f t="shared" si="1"/>
         <v>618</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="18">
-        <v>57</v>
-      </c>
+      <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" s="18">
+        <v>57</v>
+      </c>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="18">
         <v>128</v>
       </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="18">
-        <v>220</v>
-      </c>
-      <c r="L41" s="8"/>
-      <c r="M41" s="18">
-        <v>136</v>
-      </c>
+      <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="18">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="P41" s="8"/>
-      <c r="Q41" s="18">
-        <v>18</v>
-      </c>
-      <c r="R41" s="8"/>
-      <c r="S41" s="18">
-        <v>2</v>
-      </c>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="18">
+        <v>136</v>
+      </c>
+      <c r="S41" s="8"/>
       <c r="T41" s="8"/>
       <c r="U41" s="18">
+        <v>54</v>
+      </c>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="18">
+        <v>18</v>
+      </c>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="18">
         <v>2</v>
       </c>
-      <c r="V41" s="8"/>
-      <c r="W41" s="18">
-        <v>1</v>
-      </c>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="18">
+        <v>2</v>
+      </c>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="18">
+        <v>1</v>
+      </c>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36">
       <c r="A42" s="18">
         <v>37</v>
       </c>
@@ -4183,72 +4629,83 @@
         <f t="shared" si="0"/>
         <v>3549</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="34"/>
+      <c r="F42" s="17">
         <f t="shared" si="1"/>
         <v>671</v>
       </c>
-      <c r="F42" s="8">
+      <c r="G42" s="8">
         <v>844</v>
       </c>
-      <c r="G42" s="18">
+      <c r="H42" s="8"/>
+      <c r="I42" s="18">
         <v>69</v>
       </c>
-      <c r="H42" s="8">
+      <c r="J42" s="8">
         <v>807</v>
       </c>
-      <c r="I42" s="18">
+      <c r="K42" s="8"/>
+      <c r="L42" s="18">
         <v>113</v>
       </c>
-      <c r="J42" s="8">
+      <c r="M42" s="8">
         <v>754</v>
       </c>
-      <c r="K42" s="18">
+      <c r="N42" s="8"/>
+      <c r="O42" s="18">
         <v>220</v>
       </c>
-      <c r="L42" s="8">
+      <c r="P42" s="8">
         <v>510</v>
       </c>
-      <c r="M42" s="18">
+      <c r="Q42" s="8"/>
+      <c r="R42" s="18">
         <v>158</v>
       </c>
-      <c r="N42" s="8">
+      <c r="S42" s="8">
         <v>298</v>
       </c>
-      <c r="O42" s="18">
+      <c r="T42" s="8"/>
+      <c r="U42" s="18">
         <v>79</v>
       </c>
-      <c r="P42" s="8">
+      <c r="V42" s="8">
         <v>155</v>
       </c>
-      <c r="Q42" s="18">
+      <c r="W42" s="8"/>
+      <c r="X42" s="18">
         <v>20</v>
       </c>
-      <c r="R42" s="8">
+      <c r="Y42" s="8">
         <v>84</v>
       </c>
-      <c r="S42" s="18">
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="18">
         <v>10</v>
       </c>
-      <c r="T42" s="8">
+      <c r="AB42" s="8">
         <v>58</v>
       </c>
-      <c r="U42" s="18">
-        <v>1</v>
-      </c>
-      <c r="V42" s="8">
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="8">
         <v>27</v>
       </c>
-      <c r="W42" s="18">
-        <v>1</v>
-      </c>
-      <c r="X42" s="8">
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="18">
+        <v>1</v>
+      </c>
+      <c r="AH42" s="8">
         <v>12</v>
       </c>
-      <c r="Y42" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25">
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36">
       <c r="A43" s="18">
         <v>38</v>
       </c>
@@ -4262,72 +4719,83 @@
         <f t="shared" si="0"/>
         <v>613</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="34"/>
+      <c r="F43" s="17">
         <f t="shared" si="1"/>
         <v>464</v>
       </c>
-      <c r="F43" s="8">
+      <c r="G43" s="8">
         <v>80</v>
       </c>
-      <c r="G43" s="18">
+      <c r="H43" s="8"/>
+      <c r="I43" s="18">
         <v>58</v>
       </c>
-      <c r="H43" s="8">
+      <c r="J43" s="8">
         <v>243</v>
       </c>
-      <c r="I43" s="18">
+      <c r="K43" s="8"/>
+      <c r="L43" s="18">
         <v>156</v>
       </c>
-      <c r="J43" s="8">
+      <c r="M43" s="8">
         <v>117</v>
       </c>
-      <c r="K43" s="18">
+      <c r="N43" s="8"/>
+      <c r="O43" s="18">
         <v>92</v>
       </c>
-      <c r="L43" s="8">
+      <c r="P43" s="8">
         <v>62</v>
       </c>
-      <c r="M43" s="18">
+      <c r="Q43" s="8"/>
+      <c r="R43" s="18">
         <v>47</v>
       </c>
-      <c r="N43" s="8">
+      <c r="S43" s="8">
         <v>66</v>
       </c>
-      <c r="O43" s="18">
+      <c r="T43" s="8"/>
+      <c r="U43" s="18">
         <v>46</v>
       </c>
-      <c r="P43" s="8">
+      <c r="V43" s="8">
         <v>37</v>
       </c>
-      <c r="Q43" s="18">
+      <c r="W43" s="8"/>
+      <c r="X43" s="18">
         <v>29</v>
       </c>
-      <c r="R43" s="8">
+      <c r="Y43" s="8">
         <v>8</v>
       </c>
-      <c r="S43" s="18">
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="18">
         <v>12</v>
       </c>
-      <c r="T43" s="8">
-        <v>0</v>
-      </c>
-      <c r="U43" s="18">
+      <c r="AB43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="18">
         <v>5</v>
       </c>
-      <c r="V43" s="8">
-        <v>0</v>
-      </c>
-      <c r="W43" s="18">
+      <c r="AE43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="18">
         <v>8</v>
       </c>
-      <c r="X43" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="18">
+      <c r="AH43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="18">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:36">
       <c r="A44" s="18">
         <v>39</v>
       </c>
@@ -4341,52 +4809,63 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="34"/>
+      <c r="F44" s="17">
         <f t="shared" si="1"/>
         <v>402</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="18">
-        <v>93</v>
-      </c>
+      <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="18">
+        <v>93</v>
+      </c>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="18">
         <v>159</v>
       </c>
-      <c r="J44" s="8"/>
-      <c r="K44" s="18">
-        <v>82</v>
-      </c>
-      <c r="L44" s="8"/>
-      <c r="M44" s="18">
-        <v>41</v>
-      </c>
+      <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="18">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="P44" s="8"/>
-      <c r="Q44" s="18">
-        <v>3</v>
-      </c>
-      <c r="R44" s="8"/>
-      <c r="S44" s="18">
-        <v>0</v>
-      </c>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="18">
+        <v>41</v>
+      </c>
+      <c r="S44" s="8"/>
       <c r="T44" s="8"/>
       <c r="U44" s="18">
+        <v>19</v>
+      </c>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="18">
+        <v>3</v>
+      </c>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
+      <c r="AD44" s="18">
         <v>5</v>
       </c>
-      <c r="V44" s="8"/>
-      <c r="W44" s="18">
-        <v>0</v>
-      </c>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25">
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="8"/>
+      <c r="AG44" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="8"/>
+      <c r="AI44" s="8"/>
+      <c r="AJ44" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36">
       <c r="A45" s="18">
         <v>40</v>
       </c>
@@ -4400,72 +4879,83 @@
         <f t="shared" si="0"/>
         <v>361</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="34"/>
+      <c r="F45" s="17">
         <f t="shared" si="1"/>
         <v>402</v>
       </c>
-      <c r="F45" s="8">
+      <c r="G45" s="8">
         <v>237</v>
       </c>
-      <c r="G45" s="18">
+      <c r="H45" s="8"/>
+      <c r="I45" s="18">
         <v>93</v>
       </c>
-      <c r="H45" s="8">
+      <c r="J45" s="8">
         <v>61</v>
       </c>
-      <c r="I45" s="18">
+      <c r="K45" s="8"/>
+      <c r="L45" s="18">
         <v>159</v>
       </c>
-      <c r="J45" s="8">
+      <c r="M45" s="8">
         <v>39</v>
       </c>
-      <c r="K45" s="18">
+      <c r="N45" s="8"/>
+      <c r="O45" s="18">
         <v>82</v>
       </c>
-      <c r="L45" s="8">
+      <c r="P45" s="8">
         <v>16</v>
       </c>
-      <c r="M45" s="18">
+      <c r="Q45" s="8"/>
+      <c r="R45" s="18">
         <v>41</v>
       </c>
-      <c r="N45" s="8">
+      <c r="S45" s="8">
         <v>6</v>
       </c>
-      <c r="O45" s="18">
+      <c r="T45" s="8"/>
+      <c r="U45" s="18">
         <v>19</v>
       </c>
-      <c r="P45" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="18">
+      <c r="V45" s="8">
+        <v>0</v>
+      </c>
+      <c r="W45" s="8"/>
+      <c r="X45" s="18">
         <v>3</v>
       </c>
-      <c r="R45" s="8">
-        <v>1</v>
-      </c>
-      <c r="S45" s="18">
-        <v>0</v>
-      </c>
-      <c r="T45" s="8">
-        <v>1</v>
-      </c>
-      <c r="U45" s="18">
+      <c r="Y45" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="18">
         <v>5</v>
       </c>
-      <c r="V45" s="8">
-        <v>0</v>
-      </c>
-      <c r="W45" s="18">
-        <v>0</v>
-      </c>
-      <c r="X45" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25">
+      <c r="AE45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36">
       <c r="A46" s="18">
         <v>41</v>
       </c>
@@ -4479,52 +4969,63 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="34"/>
+      <c r="F46" s="17">
         <f t="shared" si="1"/>
         <v>930</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="18">
-        <v>119</v>
-      </c>
+      <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="18">
+        <v>119</v>
+      </c>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="18">
         <v>242</v>
       </c>
-      <c r="J46" s="8"/>
-      <c r="K46" s="18">
-        <v>242</v>
-      </c>
-      <c r="L46" s="8"/>
-      <c r="M46" s="18">
-        <v>188</v>
-      </c>
+      <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="18">
-        <v>96</v>
+        <v>242</v>
       </c>
       <c r="P46" s="8"/>
-      <c r="Q46" s="18">
-        <v>29</v>
-      </c>
-      <c r="R46" s="8"/>
-      <c r="S46" s="18">
-        <v>9</v>
-      </c>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="18">
+        <v>188</v>
+      </c>
+      <c r="S46" s="8"/>
       <c r="T46" s="8"/>
       <c r="U46" s="18">
+        <v>96</v>
+      </c>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="18">
+        <v>29</v>
+      </c>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="18">
+        <v>9</v>
+      </c>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="18">
         <v>5</v>
       </c>
-      <c r="V46" s="8"/>
-      <c r="W46" s="18">
-        <v>0</v>
-      </c>
-      <c r="X46" s="8"/>
-      <c r="Y46" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" hidden="1">
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" hidden="1">
       <c r="A47" s="18">
         <v>42</v>
       </c>
@@ -4538,72 +5039,83 @@
         <f t="shared" si="0"/>
         <v>3195</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="34"/>
+      <c r="F47" s="17">
         <f t="shared" si="1"/>
         <v>593</v>
       </c>
-      <c r="F47" s="8">
+      <c r="G47" s="8">
         <v>1168</v>
       </c>
-      <c r="G47" s="18">
+      <c r="H47" s="8"/>
+      <c r="I47" s="18">
         <v>111</v>
       </c>
-      <c r="H47" s="8">
+      <c r="J47" s="8">
         <v>874</v>
       </c>
-      <c r="I47" s="18">
+      <c r="K47" s="8"/>
+      <c r="L47" s="18">
         <v>180</v>
       </c>
-      <c r="J47" s="8">
+      <c r="M47" s="8">
         <v>568</v>
       </c>
-      <c r="K47" s="18">
+      <c r="N47" s="8"/>
+      <c r="O47" s="18">
         <v>170</v>
       </c>
-      <c r="L47" s="8">
+      <c r="P47" s="8">
         <v>289</v>
       </c>
-      <c r="M47" s="18">
+      <c r="Q47" s="8"/>
+      <c r="R47" s="18">
         <v>55</v>
       </c>
-      <c r="N47" s="8">
+      <c r="S47" s="8">
         <v>159</v>
       </c>
-      <c r="O47" s="18">
+      <c r="T47" s="8"/>
+      <c r="U47" s="18">
         <v>32</v>
       </c>
-      <c r="P47" s="8">
+      <c r="V47" s="8">
         <v>90</v>
       </c>
-      <c r="Q47" s="18">
+      <c r="W47" s="8"/>
+      <c r="X47" s="18">
         <v>28</v>
       </c>
-      <c r="R47" s="8">
+      <c r="Y47" s="8">
         <v>37</v>
       </c>
-      <c r="S47" s="18">
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="18">
         <v>9</v>
       </c>
-      <c r="T47" s="8">
+      <c r="AB47" s="8">
         <v>10</v>
       </c>
-      <c r="U47" s="18">
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="18">
         <v>4</v>
       </c>
-      <c r="V47" s="8">
-        <v>0</v>
-      </c>
-      <c r="W47" s="18">
+      <c r="AE47" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="18">
         <v>2</v>
       </c>
-      <c r="X47" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="18">
+      <c r="AH47" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="8"/>
+      <c r="AJ47" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:36">
       <c r="A48" s="18">
         <v>43</v>
       </c>
@@ -4617,72 +5129,83 @@
         <f t="shared" si="0"/>
         <v>650</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="34"/>
+      <c r="F48" s="17">
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
-      <c r="F48" s="8">
+      <c r="G48" s="8">
         <v>162</v>
       </c>
-      <c r="G48" s="18">
+      <c r="H48" s="8"/>
+      <c r="I48" s="18">
         <v>131</v>
       </c>
-      <c r="H48" s="8">
+      <c r="J48" s="8">
         <v>160</v>
       </c>
-      <c r="I48" s="18">
+      <c r="K48" s="8"/>
+      <c r="L48" s="18">
         <v>122</v>
       </c>
-      <c r="J48" s="8">
+      <c r="M48" s="8">
         <v>145</v>
       </c>
-      <c r="K48" s="18">
+      <c r="N48" s="8"/>
+      <c r="O48" s="18">
         <v>102</v>
       </c>
-      <c r="L48" s="8">
+      <c r="P48" s="8">
         <v>105</v>
       </c>
-      <c r="M48" s="18">
+      <c r="Q48" s="8"/>
+      <c r="R48" s="18">
         <v>74</v>
       </c>
-      <c r="N48" s="8">
+      <c r="S48" s="8">
         <v>56</v>
       </c>
-      <c r="O48" s="18">
+      <c r="T48" s="8"/>
+      <c r="U48" s="18">
         <v>37</v>
       </c>
-      <c r="P48" s="8">
+      <c r="V48" s="8">
         <v>15</v>
       </c>
-      <c r="Q48" s="18">
+      <c r="W48" s="8"/>
+      <c r="X48" s="18">
         <v>6</v>
       </c>
-      <c r="R48" s="8">
+      <c r="Y48" s="8">
         <v>5</v>
       </c>
-      <c r="S48" s="18">
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="18">
         <v>4</v>
       </c>
-      <c r="T48" s="8">
+      <c r="AB48" s="8">
         <v>2</v>
       </c>
-      <c r="U48" s="18">
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="18">
         <v>2</v>
       </c>
-      <c r="V48" s="8">
-        <v>0</v>
-      </c>
-      <c r="W48" s="18">
+      <c r="AE48" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="18">
         <v>2</v>
       </c>
-      <c r="X48" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25">
+      <c r="AH48" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="8"/>
+      <c r="AJ48" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36">
       <c r="A49" s="18">
         <v>44</v>
       </c>
@@ -4696,72 +5219,83 @@
         <f t="shared" si="0"/>
         <v>899</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="34"/>
+      <c r="F49" s="17">
         <f t="shared" si="1"/>
         <v>615</v>
       </c>
-      <c r="F49" s="8">
+      <c r="G49" s="8">
         <v>326</v>
       </c>
-      <c r="G49" s="18">
+      <c r="H49" s="8"/>
+      <c r="I49" s="18">
         <v>254</v>
       </c>
-      <c r="H49" s="8">
+      <c r="J49" s="8">
         <v>248</v>
       </c>
-      <c r="I49" s="18">
+      <c r="K49" s="8"/>
+      <c r="L49" s="18">
         <v>166</v>
       </c>
-      <c r="J49" s="8">
+      <c r="M49" s="8">
         <v>163</v>
       </c>
-      <c r="K49" s="18">
+      <c r="N49" s="8"/>
+      <c r="O49" s="18">
         <v>82</v>
       </c>
-      <c r="L49" s="8">
+      <c r="P49" s="8">
         <v>73</v>
       </c>
-      <c r="M49" s="18">
+      <c r="Q49" s="8"/>
+      <c r="R49" s="18">
         <v>50</v>
       </c>
-      <c r="N49" s="8">
+      <c r="S49" s="8">
         <v>59</v>
       </c>
-      <c r="O49" s="18">
+      <c r="T49" s="8"/>
+      <c r="U49" s="18">
         <v>40</v>
       </c>
-      <c r="P49" s="8">
+      <c r="V49" s="8">
         <v>15</v>
       </c>
-      <c r="Q49" s="18">
+      <c r="W49" s="8"/>
+      <c r="X49" s="18">
         <v>12</v>
       </c>
-      <c r="R49" s="8">
+      <c r="Y49" s="8">
         <v>15</v>
       </c>
-      <c r="S49" s="18">
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="18">
         <v>10</v>
       </c>
-      <c r="T49" s="8">
-        <v>0</v>
-      </c>
-      <c r="U49" s="18">
-        <v>1</v>
-      </c>
-      <c r="V49" s="8">
-        <v>0</v>
-      </c>
-      <c r="W49" s="18">
-        <v>0</v>
-      </c>
-      <c r="X49" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25">
+      <c r="AB49" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36">
       <c r="A50" s="18">
         <v>45</v>
       </c>
@@ -4775,72 +5309,83 @@
         <f t="shared" si="0"/>
         <v>565</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="34"/>
+      <c r="F50" s="17">
         <f t="shared" si="1"/>
         <v>551</v>
       </c>
-      <c r="F50" s="8">
+      <c r="G50" s="8">
         <v>157</v>
       </c>
-      <c r="G50" s="18">
+      <c r="H50" s="8"/>
+      <c r="I50" s="18">
         <v>138</v>
       </c>
-      <c r="H50" s="8">
+      <c r="J50" s="8">
         <v>155</v>
       </c>
-      <c r="I50" s="18">
+      <c r="K50" s="8"/>
+      <c r="L50" s="18">
         <v>176</v>
       </c>
-      <c r="J50" s="8">
+      <c r="M50" s="8">
         <v>132</v>
       </c>
-      <c r="K50" s="18">
+      <c r="N50" s="8"/>
+      <c r="O50" s="18">
         <v>119</v>
       </c>
-      <c r="L50" s="8">
+      <c r="P50" s="8">
         <v>83</v>
       </c>
-      <c r="M50" s="18">
+      <c r="Q50" s="8"/>
+      <c r="R50" s="18">
         <v>81</v>
       </c>
-      <c r="N50" s="8">
+      <c r="S50" s="8">
         <v>24</v>
       </c>
-      <c r="O50" s="18">
+      <c r="T50" s="8"/>
+      <c r="U50" s="18">
         <v>21</v>
       </c>
-      <c r="P50" s="8">
+      <c r="V50" s="8">
         <v>6</v>
       </c>
-      <c r="Q50" s="18">
+      <c r="W50" s="8"/>
+      <c r="X50" s="18">
         <v>5</v>
       </c>
-      <c r="R50" s="8">
+      <c r="Y50" s="8">
         <v>8</v>
       </c>
-      <c r="S50" s="18">
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="18">
         <v>4</v>
       </c>
-      <c r="T50" s="8">
-        <v>0</v>
-      </c>
-      <c r="U50" s="18">
+      <c r="AB50" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="18">
         <v>2</v>
       </c>
-      <c r="V50" s="8">
-        <v>0</v>
-      </c>
-      <c r="W50" s="18">
+      <c r="AE50" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="18">
         <v>5</v>
       </c>
-      <c r="X50" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25">
+      <c r="AH50" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36">
       <c r="A51" s="18">
         <v>46</v>
       </c>
@@ -4854,72 +5399,73 @@
         <f t="shared" si="0"/>
         <v>331</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="34"/>
+      <c r="F51" s="17">
         <f t="shared" si="1"/>
         <v>387</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>107</v>
       </c>
-      <c r="G51" s="18">
+      <c r="I51" s="18">
         <v>135</v>
       </c>
-      <c r="H51">
+      <c r="J51">
         <v>96</v>
       </c>
-      <c r="I51" s="18">
+      <c r="L51" s="18">
         <v>105</v>
       </c>
-      <c r="J51">
+      <c r="M51">
         <v>70</v>
       </c>
-      <c r="K51" s="18">
+      <c r="O51" s="18">
         <v>72</v>
       </c>
-      <c r="L51">
+      <c r="P51">
         <v>36</v>
       </c>
-      <c r="M51" s="18">
+      <c r="R51" s="18">
         <v>49</v>
       </c>
-      <c r="N51">
+      <c r="S51">
         <v>11</v>
       </c>
-      <c r="O51" s="18">
+      <c r="U51" s="18">
         <v>12</v>
       </c>
-      <c r="P51">
+      <c r="V51">
         <v>6</v>
       </c>
-      <c r="Q51" s="18">
+      <c r="X51" s="18">
         <v>7</v>
       </c>
-      <c r="R51">
+      <c r="Y51">
         <v>4</v>
       </c>
-      <c r="S51" s="18">
+      <c r="AA51" s="18">
         <v>2</v>
       </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51" s="18">
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="18">
         <v>3</v>
       </c>
-      <c r="V51">
-        <v>1</v>
-      </c>
-      <c r="W51" s="18">
+      <c r="AE51">
+        <v>1</v>
+      </c>
+      <c r="AG51" s="18">
         <v>2</v>
       </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25">
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36">
       <c r="A52" s="18">
         <v>47</v>
       </c>
@@ -4933,72 +5479,73 @@
         <f t="shared" si="0"/>
         <v>343</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="34"/>
+      <c r="F52" s="17">
         <f t="shared" si="1"/>
         <v>325</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>57</v>
       </c>
-      <c r="G52" s="18">
+      <c r="I52" s="18">
         <v>56</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>103</v>
       </c>
-      <c r="I52" s="18">
+      <c r="L52" s="18">
         <v>91</v>
       </c>
-      <c r="J52">
+      <c r="M52">
         <v>104</v>
       </c>
-      <c r="K52" s="18">
+      <c r="O52" s="18">
         <v>109</v>
       </c>
-      <c r="L52">
+      <c r="P52">
         <v>40</v>
       </c>
-      <c r="M52" s="18">
+      <c r="R52" s="18">
         <v>33</v>
       </c>
-      <c r="N52">
+      <c r="S52">
         <v>20</v>
       </c>
-      <c r="O52" s="18">
+      <c r="U52" s="18">
         <v>21</v>
       </c>
-      <c r="P52">
+      <c r="V52">
         <v>12</v>
       </c>
-      <c r="Q52" s="18">
+      <c r="X52" s="18">
         <v>4</v>
       </c>
-      <c r="R52">
+      <c r="Y52">
         <v>5</v>
       </c>
-      <c r="S52" s="18">
+      <c r="AA52" s="18">
         <v>5</v>
       </c>
-      <c r="T52">
+      <c r="AB52">
         <v>2</v>
       </c>
-      <c r="U52" s="18">
+      <c r="AD52" s="18">
         <v>2</v>
       </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52" s="18">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="18">
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:36">
       <c r="A53" s="18">
         <v>48</v>
       </c>
@@ -5012,72 +5559,73 @@
         <f t="shared" si="0"/>
         <v>259</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="34"/>
+      <c r="F53" s="17">
         <f t="shared" si="1"/>
         <v>278</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>34</v>
       </c>
-      <c r="G53" s="18">
+      <c r="I53" s="18">
         <v>40</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <v>89</v>
       </c>
-      <c r="I53" s="18">
+      <c r="L53" s="18">
         <v>98</v>
       </c>
-      <c r="J53">
+      <c r="M53">
         <v>64</v>
       </c>
-      <c r="K53" s="18">
+      <c r="O53" s="18">
         <v>61</v>
       </c>
-      <c r="L53">
+      <c r="P53">
         <v>38</v>
       </c>
-      <c r="M53" s="18">
+      <c r="R53" s="18">
         <v>34</v>
       </c>
-      <c r="N53">
+      <c r="S53">
         <v>18</v>
       </c>
-      <c r="O53" s="18">
+      <c r="U53" s="18">
         <v>18</v>
       </c>
-      <c r="P53">
+      <c r="V53">
         <v>15</v>
       </c>
-      <c r="Q53" s="18">
+      <c r="X53" s="18">
         <v>7</v>
       </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53" s="18">
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="18">
         <v>7</v>
       </c>
-      <c r="T53">
-        <v>1</v>
-      </c>
-      <c r="U53" s="18">
+      <c r="AB53">
+        <v>1</v>
+      </c>
+      <c r="AD53" s="18">
         <v>7</v>
       </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53" s="18">
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="18">
         <v>3</v>
       </c>
-      <c r="X53">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="18">
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:36">
       <c r="A54" s="18">
         <v>49</v>
       </c>
@@ -5091,72 +5639,73 @@
         <f t="shared" si="0"/>
         <v>919</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="34"/>
+      <c r="F54" s="17">
         <f t="shared" si="1"/>
         <v>545</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>90</v>
       </c>
-      <c r="G54" s="18">
+      <c r="I54" s="18">
         <v>39</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>228</v>
       </c>
-      <c r="I54" s="18">
+      <c r="L54" s="18">
         <v>127</v>
       </c>
-      <c r="J54">
+      <c r="M54">
         <v>309</v>
       </c>
-      <c r="K54" s="18">
+      <c r="O54" s="18">
         <v>184</v>
       </c>
-      <c r="L54">
+      <c r="P54">
         <v>175</v>
       </c>
-      <c r="M54" s="18">
+      <c r="R54" s="18">
         <v>112</v>
       </c>
-      <c r="N54">
+      <c r="S54">
         <v>82</v>
       </c>
-      <c r="O54" s="18">
+      <c r="U54" s="18">
         <v>50</v>
       </c>
-      <c r="P54">
+      <c r="V54">
         <v>29</v>
       </c>
-      <c r="Q54" s="18">
+      <c r="X54" s="18">
         <v>22</v>
       </c>
-      <c r="R54">
+      <c r="Y54">
         <v>6</v>
       </c>
-      <c r="S54" s="18">
+      <c r="AA54" s="18">
         <v>5</v>
       </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54" s="18">
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="18">
         <v>4</v>
       </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54" s="18">
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="18">
         <v>2</v>
       </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" s="10" customFormat="1">
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" s="10" customFormat="1">
       <c r="A55" s="19">
         <v>50</v>
       </c>
@@ -5170,89 +5719,92 @@
         <f t="shared" si="0"/>
         <v>472</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="34"/>
+      <c r="F55" s="17">
         <f t="shared" si="1"/>
         <v>392</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>178</v>
       </c>
-      <c r="G55" s="18">
+      <c r="H55"/>
+      <c r="I55" s="18">
         <v>129</v>
       </c>
-      <c r="H55" s="10">
+      <c r="J55" s="10">
         <v>172</v>
       </c>
-      <c r="I55" s="19">
+      <c r="L55" s="19">
         <v>150</v>
       </c>
-      <c r="J55" s="10">
+      <c r="M55" s="10">
         <v>94</v>
       </c>
-      <c r="K55" s="19">
+      <c r="O55" s="19">
         <v>90</v>
       </c>
-      <c r="L55" s="10">
+      <c r="P55" s="10">
         <v>21</v>
       </c>
-      <c r="M55" s="19">
+      <c r="R55" s="19">
         <v>19</v>
       </c>
-      <c r="N55" s="10">
+      <c r="S55" s="10">
         <v>7</v>
       </c>
-      <c r="O55" s="19">
+      <c r="U55" s="19">
         <v>4</v>
       </c>
-      <c r="P55" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="19">
-        <v>0</v>
-      </c>
-      <c r="R55" s="10">
-        <v>0</v>
-      </c>
-      <c r="S55" s="19">
-        <v>0</v>
-      </c>
-      <c r="T55" s="10">
-        <v>0</v>
-      </c>
-      <c r="U55" s="19">
-        <v>0</v>
-      </c>
       <c r="V55" s="10">
         <v>0</v>
       </c>
-      <c r="W55" s="19">
-        <v>0</v>
-      </c>
-      <c r="X55" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25">
+      <c r="X55" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36">
       <c r="A56" s="32"/>
       <c r="B56" s="28"/>
       <c r="C56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="21"/>
-      <c r="I56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="M56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="21"/>
+      <c r="L56" s="17"/>
       <c r="O56" s="17"/>
-      <c r="Q56" s="17"/>
-      <c r="S56" s="17"/>
+      <c r="R56" s="17"/>
       <c r="U56" s="17"/>
-      <c r="W56" s="17"/>
-      <c r="Y56" s="17"/>
-    </row>
-    <row r="57" spans="1:25" ht="19.5" thickBot="1">
+      <c r="X56" s="17"/>
+      <c r="AA56" s="17"/>
+      <c r="AD56" s="17"/>
+      <c r="AG56" s="17"/>
+      <c r="AJ56" s="17"/>
+    </row>
+    <row r="57" spans="1:36" ht="19.5" thickBot="1">
       <c r="A57" s="11"/>
       <c r="B57" s="12" t="s">
         <v>13</v>
@@ -5262,92 +5814,136 @@
         <f>SUM(D6:D55)</f>
         <v>33098</v>
       </c>
-      <c r="E57" s="20">
-        <f t="shared" ref="E57:Y57" si="2">SUM(E6:E55)</f>
+      <c r="E57" s="13">
+        <f>SUM(E6:E55)</f>
+        <v>961</v>
+      </c>
+      <c r="F57" s="20">
+        <f t="shared" ref="F57:AJ57" si="2">SUM(F6:F55)</f>
         <v>28136</v>
       </c>
-      <c r="F57" s="13">
+      <c r="G57" s="13">
         <f t="shared" si="2"/>
         <v>9057</v>
       </c>
-      <c r="G57" s="20">
+      <c r="H57" s="13">
+        <f t="shared" si="2"/>
+        <v>744</v>
+      </c>
+      <c r="I57" s="13">
         <f t="shared" si="2"/>
         <v>6365</v>
       </c>
-      <c r="H57" s="13">
+      <c r="J57" s="13">
         <f t="shared" si="2"/>
         <v>9892</v>
       </c>
-      <c r="I57" s="20">
+      <c r="K57" s="13">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="L57" s="13">
         <f t="shared" si="2"/>
         <v>8915</v>
       </c>
-      <c r="J57" s="13">
+      <c r="M57" s="13">
         <f t="shared" si="2"/>
         <v>7302</v>
       </c>
-      <c r="K57" s="20">
+      <c r="N57" s="13">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="O57" s="13">
         <f t="shared" si="2"/>
         <v>6721</v>
       </c>
-      <c r="L57" s="13">
+      <c r="P57" s="13">
         <f t="shared" si="2"/>
         <v>3706</v>
       </c>
-      <c r="M57" s="20">
+      <c r="Q57" s="13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="R57" s="13">
         <f t="shared" si="2"/>
         <v>3467</v>
       </c>
-      <c r="N57" s="13">
+      <c r="S57" s="13">
         <f t="shared" si="2"/>
         <v>1817</v>
       </c>
-      <c r="O57" s="20">
+      <c r="T57" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U57" s="13">
         <f t="shared" si="2"/>
         <v>1467</v>
       </c>
-      <c r="P57" s="13">
+      <c r="V57" s="13">
         <f t="shared" si="2"/>
         <v>836</v>
       </c>
-      <c r="Q57" s="20">
+      <c r="W57" s="13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="X57" s="13">
         <f t="shared" si="2"/>
         <v>589</v>
       </c>
-      <c r="R57" s="13">
+      <c r="Y57" s="13">
         <f t="shared" si="2"/>
         <v>342</v>
       </c>
-      <c r="S57" s="20">
+      <c r="Z57" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA57" s="13">
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="T57" s="13">
+      <c r="AB57" s="13">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="U57" s="20">
+      <c r="AC57" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD57" s="13">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="V57" s="13">
+      <c r="AE57" s="13">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="W57" s="20">
+      <c r="AF57" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG57" s="13">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="X57" s="13">
+      <c r="AH57" s="13">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Y57" s="20">
+      <c r="AI57" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="13">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="15.75" thickTop="1"/>
+    <row r="58" spans="1:36" ht="15.75" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="61">
   <si>
     <t>Rank</t>
   </si>
@@ -824,25 +824,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>744</c:v>
+                  <c:v>898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>166</c:v>
+                  <c:v>442</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -851,7 +851,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1409,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1564,70 +1564,90 @@
       <c r="G5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="I5" s="23" t="s">
         <v>59</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="L5" s="23" t="s">
         <v>59</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="6"/>
+      <c r="N5" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="O5" s="23" t="s">
         <v>59</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="6"/>
+      <c r="Q5" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="R5" s="23" t="s">
         <v>59</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T5" s="6"/>
+      <c r="T5" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="U5" s="23" t="s">
         <v>59</v>
       </c>
       <c r="V5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="W5" s="6"/>
+      <c r="W5" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="X5" s="23" t="s">
         <v>59</v>
       </c>
       <c r="Y5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="Z5" s="6"/>
+      <c r="Z5" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="AA5" s="23" t="s">
         <v>59</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AC5" s="6"/>
+      <c r="AC5" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="AD5" s="23" t="s">
         <v>59</v>
       </c>
       <c r="AE5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AF5" s="6"/>
+      <c r="AF5" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="AG5" s="23" t="s">
         <v>59</v>
       </c>
       <c r="AH5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AI5" s="6"/>
+      <c r="AI5" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="AJ5" s="23" t="s">
         <v>59</v>
       </c>
@@ -1759,7 +1779,10 @@
         <f t="shared" ref="D7:D55" si="0">SUM(G7,J7,M7,P7,S7,V7,Y7,AB7,AE7,AH7)</f>
         <v>915</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="34">
+        <f>H7+K7+N7+Q7+T7+W7+Z7+AC7+AF7+AI7</f>
+        <v>673</v>
+      </c>
       <c r="F7" s="17">
         <f t="shared" ref="F7:F55" si="1">SUM(I7,L7,O7,R7,U7,X7,AA7,AD7,AG7,AJ7)</f>
         <v>586</v>
@@ -1767,46 +1790,70 @@
       <c r="G7">
         <v>220</v>
       </c>
+      <c r="H7">
+        <v>154</v>
+      </c>
       <c r="I7" s="17">
         <v>153</v>
       </c>
       <c r="J7">
         <v>428</v>
       </c>
+      <c r="K7">
+        <v>276</v>
+      </c>
       <c r="L7" s="17">
         <v>231</v>
       </c>
       <c r="M7">
         <v>199</v>
       </c>
+      <c r="N7">
+        <v>145</v>
+      </c>
       <c r="O7" s="17">
         <v>146</v>
       </c>
       <c r="P7">
         <v>37</v>
       </c>
+      <c r="Q7">
+        <v>57</v>
+      </c>
       <c r="R7" s="17">
         <v>25</v>
       </c>
       <c r="S7">
         <v>24</v>
       </c>
+      <c r="T7">
+        <v>34</v>
+      </c>
       <c r="U7" s="17">
         <v>20</v>
       </c>
       <c r="V7">
         <v>5</v>
       </c>
+      <c r="W7">
+        <v>5</v>
+      </c>
       <c r="X7" s="17">
         <v>4</v>
       </c>
       <c r="Y7">
         <v>2</v>
       </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
       <c r="AA7" s="17">
         <v>0</v>
       </c>
       <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7" s="17">
@@ -1815,11 +1862,17 @@
       <c r="AE7">
         <v>0</v>
       </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
       <c r="AG7" s="17">
         <v>1</v>
       </c>
       <c r="AH7">
         <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
       </c>
       <c r="AJ7" s="17">
         <v>4</v>
@@ -1839,7 +1892,10 @@
         <f t="shared" si="0"/>
         <v>904</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="34">
+        <f t="shared" ref="E8:E55" si="2">H8+K8+N8+Q8+T8+W8+Z8+AC8+AF8+AI8</f>
+        <v>0</v>
+      </c>
       <c r="F8" s="17">
         <f t="shared" si="1"/>
         <v>749</v>
@@ -1919,7 +1975,10 @@
         <f t="shared" si="0"/>
         <v>645</v>
       </c>
-      <c r="E9" s="34"/>
+      <c r="E9" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F9" s="17">
         <f t="shared" si="1"/>
         <v>605</v>
@@ -1999,7 +2058,10 @@
         <f t="shared" si="0"/>
         <v>474</v>
       </c>
-      <c r="E10" s="34"/>
+      <c r="E10" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F10" s="17">
         <f t="shared" si="1"/>
         <v>503</v>
@@ -2079,7 +2141,10 @@
         <f t="shared" si="0"/>
         <v>809</v>
       </c>
-      <c r="E11" s="34"/>
+      <c r="E11" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F11" s="17">
         <f t="shared" si="1"/>
         <v>714</v>
@@ -2159,7 +2224,10 @@
         <f t="shared" si="0"/>
         <v>719</v>
       </c>
-      <c r="E12" s="34"/>
+      <c r="E12" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F12" s="17">
         <f t="shared" si="1"/>
         <v>477</v>
@@ -2239,7 +2307,10 @@
         <f t="shared" si="0"/>
         <v>766</v>
       </c>
-      <c r="E13" s="34"/>
+      <c r="E13" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F13" s="17">
         <f t="shared" si="1"/>
         <v>751</v>
@@ -2319,7 +2390,10 @@
         <f t="shared" si="0"/>
         <v>522</v>
       </c>
-      <c r="E14" s="34"/>
+      <c r="E14" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F14" s="17">
         <f t="shared" si="1"/>
         <v>439</v>
@@ -2399,7 +2473,10 @@
         <f t="shared" si="0"/>
         <v>601</v>
       </c>
-      <c r="E15" s="34"/>
+      <c r="E15" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F15" s="17">
         <f t="shared" si="1"/>
         <v>499</v>
@@ -2479,7 +2556,10 @@
         <f t="shared" si="0"/>
         <v>959</v>
       </c>
-      <c r="E16" s="34"/>
+      <c r="E16" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F16" s="17">
         <f t="shared" si="1"/>
         <v>849</v>
@@ -2559,7 +2639,10 @@
         <f t="shared" si="0"/>
         <v>411</v>
       </c>
-      <c r="E17" s="34"/>
+      <c r="E17" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F17" s="17">
         <f t="shared" si="1"/>
         <v>495</v>
@@ -2639,7 +2722,10 @@
         <f t="shared" si="0"/>
         <v>505</v>
       </c>
-      <c r="E18" s="34"/>
+      <c r="E18" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F18" s="17">
         <f t="shared" si="1"/>
         <v>419</v>
@@ -2719,7 +2805,10 @@
         <f t="shared" si="0"/>
         <v>1154</v>
       </c>
-      <c r="E19" s="34"/>
+      <c r="E19" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F19" s="17">
         <f t="shared" si="1"/>
         <v>438</v>
@@ -2799,7 +2888,10 @@
         <f t="shared" si="0"/>
         <v>222</v>
       </c>
-      <c r="E20" s="34"/>
+      <c r="E20" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F20" s="17">
         <f t="shared" si="1"/>
         <v>208</v>
@@ -2879,7 +2971,10 @@
         <f t="shared" si="0"/>
         <v>992</v>
       </c>
-      <c r="E21" s="34"/>
+      <c r="E21" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F21" s="17">
         <f t="shared" si="1"/>
         <v>932</v>
@@ -2959,7 +3054,10 @@
         <f t="shared" si="0"/>
         <v>1899</v>
       </c>
-      <c r="E22" s="34"/>
+      <c r="E22" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F22" s="17">
         <f t="shared" si="1"/>
         <v>975</v>
@@ -3039,7 +3137,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="34"/>
+      <c r="E23" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F23" s="17">
         <f t="shared" si="1"/>
         <v>473</v>
@@ -3109,7 +3210,10 @@
         <f t="shared" si="0"/>
         <v>506</v>
       </c>
-      <c r="E24" s="34"/>
+      <c r="E24" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F24" s="17">
         <f t="shared" si="1"/>
         <v>631</v>
@@ -3199,7 +3303,10 @@
         <f t="shared" si="0"/>
         <v>679</v>
       </c>
-      <c r="E25" s="34"/>
+      <c r="E25" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F25" s="17">
         <f t="shared" si="1"/>
         <v>508</v>
@@ -3289,7 +3396,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="34"/>
+      <c r="E26" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F26" s="17">
         <f t="shared" si="1"/>
         <v>614</v>
@@ -3359,7 +3469,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="34"/>
+      <c r="E27" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F27" s="17">
         <f t="shared" si="1"/>
         <v>533</v>
@@ -3429,7 +3542,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="34"/>
+      <c r="E28" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F28" s="17">
         <f t="shared" si="1"/>
         <v>790</v>
@@ -3499,7 +3615,10 @@
         <f t="shared" si="0"/>
         <v>446</v>
       </c>
-      <c r="E29" s="34"/>
+      <c r="E29" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F29" s="17">
         <f t="shared" si="1"/>
         <v>327</v>
@@ -3589,7 +3708,10 @@
         <f t="shared" si="0"/>
         <v>426</v>
       </c>
-      <c r="E30" s="34"/>
+      <c r="E30" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F30" s="17">
         <f t="shared" si="1"/>
         <v>448</v>
@@ -3679,7 +3801,10 @@
         <f t="shared" si="0"/>
         <v>797</v>
       </c>
-      <c r="E31" s="34"/>
+      <c r="E31" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F31" s="17">
         <f t="shared" si="1"/>
         <v>544</v>
@@ -3769,7 +3894,10 @@
         <f t="shared" si="0"/>
         <v>358</v>
       </c>
-      <c r="E32" s="34"/>
+      <c r="E32" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F32" s="17">
         <f t="shared" si="1"/>
         <v>270</v>
@@ -3859,7 +3987,10 @@
         <f t="shared" si="0"/>
         <v>515</v>
       </c>
-      <c r="E33" s="34"/>
+      <c r="E33" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F33" s="17">
         <f t="shared" si="1"/>
         <v>445</v>
@@ -3949,7 +4080,10 @@
         <f t="shared" si="0"/>
         <v>516</v>
       </c>
-      <c r="E34" s="34"/>
+      <c r="E34" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F34" s="17">
         <f t="shared" si="1"/>
         <v>740</v>
@@ -4039,7 +4173,10 @@
         <f t="shared" si="0"/>
         <v>1055</v>
       </c>
-      <c r="E35" s="34"/>
+      <c r="E35" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F35" s="17">
         <f t="shared" si="1"/>
         <v>997</v>
@@ -4129,7 +4266,10 @@
         <f t="shared" si="0"/>
         <v>563</v>
       </c>
-      <c r="E36" s="34"/>
+      <c r="E36" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F36" s="17">
         <f t="shared" si="1"/>
         <v>421</v>
@@ -4219,7 +4359,10 @@
         <f t="shared" si="0"/>
         <v>553</v>
       </c>
-      <c r="E37" s="34"/>
+      <c r="E37" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F37" s="17">
         <f t="shared" si="1"/>
         <v>397</v>
@@ -4309,7 +4452,10 @@
         <f t="shared" si="0"/>
         <v>599</v>
       </c>
-      <c r="E38" s="34"/>
+      <c r="E38" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F38" s="17">
         <f t="shared" si="1"/>
         <v>501</v>
@@ -4399,7 +4545,10 @@
         <f t="shared" si="0"/>
         <v>366</v>
       </c>
-      <c r="E39" s="34"/>
+      <c r="E39" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F39" s="17">
         <f t="shared" si="1"/>
         <v>314</v>
@@ -4489,7 +4638,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E40" s="34"/>
+      <c r="E40" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F40" s="17">
         <f t="shared" si="1"/>
         <v>630</v>
@@ -4559,7 +4711,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E41" s="34"/>
+      <c r="E41" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F41" s="17">
         <f t="shared" si="1"/>
         <v>618</v>
@@ -4629,7 +4784,10 @@
         <f t="shared" si="0"/>
         <v>3549</v>
       </c>
-      <c r="E42" s="34"/>
+      <c r="E42" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F42" s="17">
         <f t="shared" si="1"/>
         <v>671</v>
@@ -4719,7 +4877,10 @@
         <f t="shared" si="0"/>
         <v>613</v>
       </c>
-      <c r="E43" s="34"/>
+      <c r="E43" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F43" s="17">
         <f t="shared" si="1"/>
         <v>464</v>
@@ -4809,7 +4970,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="34"/>
+      <c r="E44" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F44" s="17">
         <f t="shared" si="1"/>
         <v>402</v>
@@ -4879,7 +5043,10 @@
         <f t="shared" si="0"/>
         <v>361</v>
       </c>
-      <c r="E45" s="34"/>
+      <c r="E45" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F45" s="17">
         <f t="shared" si="1"/>
         <v>402</v>
@@ -4969,7 +5136,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E46" s="34"/>
+      <c r="E46" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F46" s="17">
         <f t="shared" si="1"/>
         <v>930</v>
@@ -5039,7 +5209,10 @@
         <f t="shared" si="0"/>
         <v>3195</v>
       </c>
-      <c r="E47" s="34"/>
+      <c r="E47" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F47" s="17">
         <f t="shared" si="1"/>
         <v>593</v>
@@ -5129,7 +5302,10 @@
         <f t="shared" si="0"/>
         <v>650</v>
       </c>
-      <c r="E48" s="34"/>
+      <c r="E48" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F48" s="17">
         <f t="shared" si="1"/>
         <v>480</v>
@@ -5219,7 +5395,10 @@
         <f t="shared" si="0"/>
         <v>899</v>
       </c>
-      <c r="E49" s="34"/>
+      <c r="E49" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F49" s="17">
         <f t="shared" si="1"/>
         <v>615</v>
@@ -5309,7 +5488,10 @@
         <f t="shared" si="0"/>
         <v>565</v>
       </c>
-      <c r="E50" s="34"/>
+      <c r="E50" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F50" s="17">
         <f t="shared" si="1"/>
         <v>551</v>
@@ -5399,7 +5581,10 @@
         <f t="shared" si="0"/>
         <v>331</v>
       </c>
-      <c r="E51" s="34"/>
+      <c r="E51" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F51" s="17">
         <f t="shared" si="1"/>
         <v>387</v>
@@ -5479,7 +5664,10 @@
         <f t="shared" si="0"/>
         <v>343</v>
       </c>
-      <c r="E52" s="34"/>
+      <c r="E52" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F52" s="17">
         <f t="shared" si="1"/>
         <v>325</v>
@@ -5559,7 +5747,10 @@
         <f t="shared" si="0"/>
         <v>259</v>
       </c>
-      <c r="E53" s="34"/>
+      <c r="E53" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F53" s="17">
         <f t="shared" si="1"/>
         <v>278</v>
@@ -5639,7 +5830,10 @@
         <f t="shared" si="0"/>
         <v>919</v>
       </c>
-      <c r="E54" s="34"/>
+      <c r="E54" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F54" s="17">
         <f t="shared" si="1"/>
         <v>545</v>
@@ -5719,7 +5913,10 @@
         <f t="shared" si="0"/>
         <v>472</v>
       </c>
-      <c r="E55" s="34"/>
+      <c r="E55" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F55" s="17">
         <f t="shared" si="1"/>
         <v>392</v>
@@ -5816,130 +6013,130 @@
       </c>
       <c r="E57" s="13">
         <f>SUM(E6:E55)</f>
-        <v>961</v>
+        <v>1634</v>
       </c>
       <c r="F57" s="20">
-        <f t="shared" ref="F57:AJ57" si="2">SUM(F6:F55)</f>
+        <f t="shared" ref="F57:AJ57" si="3">SUM(F6:F55)</f>
         <v>28136</v>
       </c>
       <c r="G57" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9057</v>
       </c>
       <c r="H57" s="13">
-        <f t="shared" si="2"/>
-        <v>744</v>
+        <f t="shared" si="3"/>
+        <v>898</v>
       </c>
       <c r="I57" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6365</v>
       </c>
       <c r="J57" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9892</v>
       </c>
       <c r="K57" s="13">
-        <f t="shared" si="2"/>
-        <v>166</v>
+        <f t="shared" si="3"/>
+        <v>442</v>
       </c>
       <c r="L57" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8915</v>
       </c>
       <c r="M57" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7302</v>
       </c>
       <c r="N57" s="13">
-        <f t="shared" si="2"/>
-        <v>43</v>
+        <f t="shared" si="3"/>
+        <v>188</v>
       </c>
       <c r="O57" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6721</v>
       </c>
       <c r="P57" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3706</v>
       </c>
       <c r="Q57" s="13">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>62</v>
       </c>
       <c r="R57" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3467</v>
       </c>
       <c r="S57" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1817</v>
       </c>
       <c r="T57" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="U57" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1467</v>
       </c>
       <c r="V57" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>836</v>
       </c>
       <c r="W57" s="13">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="X57" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>589</v>
       </c>
       <c r="Y57" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>342</v>
       </c>
       <c r="Z57" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AA57" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="AB57" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="AC57" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD57" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>168</v>
       </c>
       <c r="AE57" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="AF57" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG57" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="AH57" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="AI57" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="AJ57" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
     </row>
